--- a/ToM/compVsMimic_Etude/EtudeFinale/ComportementPow.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/ComportementPow.xlsx
@@ -11,6 +11,8 @@
     <sheet name="PowBob" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="powArthur" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="powKevin" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Wilcox_Test" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t xml:space="preserve">H1</t>
   </si>
@@ -36,10 +38,55 @@
     <t xml:space="preserve">H4</t>
   </si>
   <si>
+    <t xml:space="preserve">Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">V wilcoxon</t>
   </si>
   <si>
     <t xml:space="preserve">Pvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test de similarité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moyenne(Agent-User)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-test(mu =0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparaison entre les agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">étudier si la différence de perception de comportement de pouvoir est plus importante dans la condition bob et kevin que dans la condition d’arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But: Complémenter l’étude de similarité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference(Agent-user)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecart type(Agent-User)</t>
   </si>
 </sst>
 </file>
@@ -50,7 +97,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,13 +120,53 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -127,7 +214,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -140,24 +227,92 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -170,6 +325,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -178,16 +393,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I133" activeCellId="0" sqref="I133"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -207,7 +419,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>3</v>
       </c>
@@ -233,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>5</v>
       </c>
@@ -259,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
@@ -285,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
@@ -311,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>1</v>
       </c>
@@ -337,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>2</v>
       </c>
@@ -363,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>1</v>
       </c>
@@ -389,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>5</v>
       </c>
@@ -415,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>1</v>
       </c>
@@ -441,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1</v>
       </c>
@@ -467,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>2</v>
       </c>
@@ -493,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>2</v>
       </c>
@@ -519,7 +731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>2</v>
       </c>
@@ -545,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2</v>
       </c>
@@ -571,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>2</v>
       </c>
@@ -597,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>4</v>
       </c>
@@ -623,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>1</v>
       </c>
@@ -649,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>1</v>
       </c>
@@ -675,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
@@ -701,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
@@ -727,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>1</v>
       </c>
@@ -753,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
@@ -779,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
@@ -805,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
@@ -831,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>1</v>
       </c>
@@ -857,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>1</v>
       </c>
@@ -883,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
@@ -909,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
@@ -935,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>3</v>
       </c>
@@ -961,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>3</v>
       </c>
@@ -987,7 +1199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>1</v>
       </c>
@@ -1013,7 +1225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
@@ -1039,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>4</v>
       </c>
@@ -1065,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
@@ -1091,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>1</v>
       </c>
@@ -1117,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>1</v>
       </c>
@@ -1143,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>2</v>
       </c>
@@ -1169,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>2</v>
       </c>
@@ -1195,7 +1407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>2</v>
       </c>
@@ -1221,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>2</v>
       </c>
@@ -1247,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>2</v>
       </c>
@@ -1273,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>2</v>
       </c>
@@ -1299,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>1</v>
       </c>
@@ -1325,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>2</v>
       </c>
@@ -1351,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>2</v>
       </c>
@@ -1377,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>2</v>
       </c>
@@ -1429,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
@@ -1455,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>1</v>
       </c>
@@ -1481,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
@@ -1507,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>2</v>
       </c>
@@ -1533,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>2</v>
       </c>
@@ -1559,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
@@ -1585,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>2</v>
       </c>
@@ -1611,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>1</v>
       </c>
@@ -1637,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>1</v>
       </c>
@@ -1663,7 +1875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>3</v>
       </c>
@@ -1689,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>1</v>
       </c>
@@ -1715,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>2</v>
       </c>
@@ -1741,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>4</v>
       </c>
@@ -1767,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>3</v>
       </c>
@@ -1793,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>2</v>
       </c>
@@ -1819,7 +2031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>3</v>
       </c>
@@ -1845,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>1</v>
       </c>
@@ -1871,7 +2083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>2</v>
       </c>
@@ -1897,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>1</v>
       </c>
@@ -1923,7 +2135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>2</v>
       </c>
@@ -1949,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>2</v>
       </c>
@@ -1975,7 +2187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>2</v>
       </c>
@@ -2001,7 +2213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>1</v>
       </c>
@@ -2027,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>1</v>
       </c>
@@ -2053,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>1</v>
       </c>
@@ -2079,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>2</v>
       </c>
@@ -2105,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>2</v>
       </c>
@@ -2131,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>2</v>
       </c>
@@ -2157,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>2</v>
       </c>
@@ -2183,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>4</v>
       </c>
@@ -2209,7 +2421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>1</v>
       </c>
@@ -2235,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>1</v>
       </c>
@@ -2261,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>2</v>
       </c>
@@ -2287,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>2</v>
       </c>
@@ -2339,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>3</v>
       </c>
@@ -2365,7 +2577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>2</v>
       </c>
@@ -2391,7 +2603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
@@ -2417,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>2</v>
       </c>
@@ -2443,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>1</v>
       </c>
@@ -2469,7 +2681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>2</v>
       </c>
@@ -2495,7 +2707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>4</v>
       </c>
@@ -2521,7 +2733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>4</v>
       </c>
@@ -2547,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>1</v>
       </c>
@@ -2573,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>2</v>
       </c>
@@ -2599,7 +2811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>2</v>
       </c>
@@ -2625,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>1</v>
       </c>
@@ -2651,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>4</v>
       </c>
@@ -2677,7 +2889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>1</v>
       </c>
@@ -2703,7 +2915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>1</v>
       </c>
@@ -2729,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>2</v>
       </c>
@@ -2755,7 +2967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>2</v>
       </c>
@@ -2781,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>2</v>
       </c>
@@ -2807,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>2</v>
       </c>
@@ -2833,7 +3045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>2</v>
       </c>
@@ -2859,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>2</v>
       </c>
@@ -2885,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>1</v>
       </c>
@@ -2911,7 +3123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>1</v>
       </c>
@@ -2937,7 +3149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>1</v>
       </c>
@@ -2989,7 +3201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>1</v>
       </c>
@@ -3015,7 +3227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>2</v>
       </c>
@@ -3041,7 +3253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>1</v>
       </c>
@@ -3067,7 +3279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>4</v>
       </c>
@@ -3093,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>2</v>
       </c>
@@ -3119,7 +3331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>2</v>
       </c>
@@ -3145,7 +3357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>2</v>
       </c>
@@ -3171,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>2</v>
       </c>
@@ -3197,7 +3409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>1</v>
       </c>
@@ -3249,7 +3461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>2</v>
       </c>
@@ -3275,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>1</v>
       </c>
@@ -3301,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>2</v>
       </c>
@@ -3327,7 +3539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>4</v>
       </c>
@@ -3353,7 +3565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>2</v>
       </c>
@@ -3379,63 +3591,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="n">
-        <v>704</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3" t="n">
-        <v>3231</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3" t="n">
-        <v>631.5</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3" t="n">
-        <v>2704</v>
-      </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5" t="n">
-        <v>2.879E-006</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="6" t="n">
-        <v>7.307E-008</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6" t="n">
-        <v>1.419E-010</v>
-      </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="3" t="n">
-        <v>0.6583</v>
-      </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3452,18 +3614,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
-  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3640,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>3</v>
       </c>
@@ -3507,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
@@ -3533,7 +3692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>4</v>
       </c>
@@ -3559,7 +3718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
@@ -3585,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
@@ -3611,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>4</v>
       </c>
@@ -3637,7 +3796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>4</v>
       </c>
@@ -3663,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>4</v>
       </c>
@@ -3689,7 +3848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>4</v>
       </c>
@@ -3715,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>4</v>
       </c>
@@ -3741,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>2</v>
       </c>
@@ -3767,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>3</v>
       </c>
@@ -3793,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>4</v>
       </c>
@@ -3819,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2</v>
       </c>
@@ -3845,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>2</v>
       </c>
@@ -3871,7 +4030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>2</v>
       </c>
@@ -3897,7 +4056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>2</v>
       </c>
@@ -3923,7 +4082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>3</v>
       </c>
@@ -3949,7 +4108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>5</v>
       </c>
@@ -3975,7 +4134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
@@ -4001,7 +4160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>1</v>
       </c>
@@ -4027,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
@@ -4053,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>3</v>
       </c>
@@ -4079,7 +4238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>5</v>
       </c>
@@ -4105,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>5</v>
       </c>
@@ -4131,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>3</v>
       </c>
@@ -4157,7 +4316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
@@ -4183,7 +4342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>4</v>
       </c>
@@ -4209,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>3</v>
       </c>
@@ -4235,7 +4394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>3</v>
       </c>
@@ -4261,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>2</v>
       </c>
@@ -4287,7 +4446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>1</v>
       </c>
@@ -4313,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>1</v>
       </c>
@@ -4339,7 +4498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
@@ -4365,7 +4524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>2</v>
       </c>
@@ -4391,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>2</v>
       </c>
@@ -4417,7 +4576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>2</v>
       </c>
@@ -4443,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>2</v>
       </c>
@@ -4469,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>2</v>
       </c>
@@ -4495,7 +4654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>4</v>
       </c>
@@ -4521,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>2</v>
       </c>
@@ -4547,7 +4706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>4</v>
       </c>
@@ -4573,7 +4732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>2</v>
       </c>
@@ -4599,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>2</v>
       </c>
@@ -4625,7 +4784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>4</v>
       </c>
@@ -4651,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>3</v>
       </c>
@@ -4677,7 +4836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
@@ -4703,7 +4862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>1</v>
       </c>
@@ -4729,7 +4888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
@@ -4755,7 +4914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>2</v>
       </c>
@@ -4781,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>2</v>
       </c>
@@ -4807,7 +4966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
@@ -4833,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
@@ -4859,7 +5018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>2</v>
       </c>
@@ -4885,7 +5044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>3</v>
       </c>
@@ -4911,7 +5070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>2</v>
       </c>
@@ -4937,7 +5096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>1</v>
       </c>
@@ -4963,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>4</v>
       </c>
@@ -4989,7 +5148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>4</v>
       </c>
@@ -5015,7 +5174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>2</v>
       </c>
@@ -5041,7 +5200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>3</v>
       </c>
@@ -5067,12 +5226,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B63" s="0" t="n">
-        <f aca="false">6-A63</f>
+        <f aca="false">6-powArthur!A63</f>
         <v>2</v>
       </c>
       <c r="C63" s="2" t="n">
@@ -5094,12 +5253,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B64" s="0" t="n">
-        <f aca="false">6-A64</f>
+        <f aca="false">6-powArthur!A64</f>
         <v>5</v>
       </c>
       <c r="C64" s="2" t="n">
@@ -5121,12 +5280,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B65" s="0" t="n">
-        <f aca="false">6-A65</f>
+        <f aca="false">6-powArthur!A65</f>
         <v>4</v>
       </c>
       <c r="C65" s="2" t="n">
@@ -5148,12 +5307,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B66" s="0" t="n">
-        <f aca="false">6-A66</f>
+        <f aca="false">6-powArthur!A66</f>
         <v>4</v>
       </c>
       <c r="C66" s="2" t="n">
@@ -5175,12 +5334,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B67" s="0" t="n">
-        <f aca="false">6-A67</f>
+        <f aca="false">6-powArthur!A67</f>
         <v>2</v>
       </c>
       <c r="C67" s="2" t="n">
@@ -5202,12 +5361,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B68" s="0" t="n">
-        <f aca="false">6-A68</f>
+        <f aca="false">6-powArthur!A68</f>
         <v>4</v>
       </c>
       <c r="C68" s="2" t="n">
@@ -5229,12 +5388,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B69" s="0" t="n">
-        <f aca="false">6-A69</f>
+        <f aca="false">6-powArthur!A69</f>
         <v>1</v>
       </c>
       <c r="C69" s="2" t="n">
@@ -5256,12 +5415,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B70" s="0" t="n">
-        <f aca="false">6-A70</f>
+        <f aca="false">6-powArthur!A70</f>
         <v>2</v>
       </c>
       <c r="C70" s="2" t="n">
@@ -5283,12 +5442,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B71" s="0" t="n">
-        <f aca="false">6-A71</f>
+        <f aca="false">6-powArthur!A71</f>
         <v>5</v>
       </c>
       <c r="C71" s="2" t="n">
@@ -5310,12 +5469,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B72" s="0" t="n">
-        <f aca="false">6-A72</f>
+        <f aca="false">6-powArthur!A72</f>
         <v>2</v>
       </c>
       <c r="C72" s="2" t="n">
@@ -5337,12 +5496,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B73" s="0" t="n">
-        <f aca="false">6-A73</f>
+        <f aca="false">6-powArthur!A73</f>
         <v>4</v>
       </c>
       <c r="C73" s="2" t="n">
@@ -5364,12 +5523,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B74" s="0" t="n">
-        <f aca="false">6-A74</f>
+        <f aca="false">6-powArthur!A74</f>
         <v>2</v>
       </c>
       <c r="C74" s="2" t="n">
@@ -5391,12 +5550,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B75" s="0" t="n">
-        <f aca="false">6-A75</f>
+        <f aca="false">6-powArthur!A75</f>
         <v>3</v>
       </c>
       <c r="C75" s="2" t="n">
@@ -5418,12 +5577,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B76" s="0" t="n">
-        <f aca="false">6-A76</f>
+        <f aca="false">6-powArthur!A76</f>
         <v>4</v>
       </c>
       <c r="C76" s="2" t="n">
@@ -5445,12 +5604,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B77" s="0" t="n">
-        <f aca="false">6-A77</f>
+        <f aca="false">6-powArthur!A77</f>
         <v>4</v>
       </c>
       <c r="C77" s="2" t="n">
@@ -5472,12 +5631,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B78" s="0" t="n">
-        <f aca="false">6-A78</f>
+        <f aca="false">6-powArthur!A78</f>
         <v>4</v>
       </c>
       <c r="C78" s="2" t="n">
@@ -5499,12 +5658,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B79" s="0" t="n">
-        <f aca="false">6-A79</f>
+        <f aca="false">6-powArthur!A79</f>
         <v>5</v>
       </c>
       <c r="C79" s="2" t="n">
@@ -5526,12 +5685,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B80" s="0" t="n">
-        <f aca="false">6-A80</f>
+        <f aca="false">6-powArthur!A80</f>
         <v>4</v>
       </c>
       <c r="C80" s="2" t="n">
@@ -5553,12 +5712,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B81" s="0" t="n">
-        <f aca="false">6-A81</f>
+        <f aca="false">6-powArthur!A81</f>
         <v>4</v>
       </c>
       <c r="C81" s="2" t="n">
@@ -5580,12 +5739,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B82" s="0" t="n">
-        <f aca="false">6-A82</f>
+        <f aca="false">6-powArthur!A82</f>
         <v>4</v>
       </c>
       <c r="C82" s="2" t="n">
@@ -5607,12 +5766,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B83" s="0" t="n">
-        <f aca="false">6-A83</f>
+        <f aca="false">6-powArthur!A83</f>
         <v>4</v>
       </c>
       <c r="C83" s="2" t="n">
@@ -5634,12 +5793,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B84" s="0" t="n">
-        <f aca="false">6-A84</f>
+        <f aca="false">6-powArthur!A84</f>
         <v>4</v>
       </c>
       <c r="C84" s="2" t="n">
@@ -5661,12 +5820,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B85" s="0" t="n">
-        <f aca="false">6-A85</f>
+        <f aca="false">6-powArthur!A85</f>
         <v>4</v>
       </c>
       <c r="C85" s="2" t="n">
@@ -5688,12 +5847,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B86" s="0" t="n">
-        <f aca="false">6-A86</f>
+        <f aca="false">6-powArthur!A86</f>
         <v>5</v>
       </c>
       <c r="C86" s="2" t="n">
@@ -5715,12 +5874,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B87" s="0" t="n">
-        <f aca="false">6-A87</f>
+        <f aca="false">6-powArthur!A87</f>
         <v>3</v>
       </c>
       <c r="C87" s="2" t="n">
@@ -5742,12 +5901,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B88" s="0" t="n">
-        <f aca="false">6-A88</f>
+        <f aca="false">6-powArthur!A88</f>
         <v>3</v>
       </c>
       <c r="C88" s="2" t="n">
@@ -5769,12 +5928,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B89" s="0" t="n">
-        <f aca="false">6-A89</f>
+        <f aca="false">6-powArthur!A89</f>
         <v>4</v>
       </c>
       <c r="C89" s="2" t="n">
@@ -5796,12 +5955,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B90" s="0" t="n">
-        <f aca="false">6-A90</f>
+        <f aca="false">6-powArthur!A90</f>
         <v>4</v>
       </c>
       <c r="C90" s="2" t="n">
@@ -5823,12 +5982,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B91" s="0" t="n">
-        <f aca="false">6-A91</f>
+        <f aca="false">6-powArthur!A91</f>
         <v>4</v>
       </c>
       <c r="C91" s="2" t="n">
@@ -5850,12 +6009,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B92" s="0" t="n">
-        <f aca="false">6-A92</f>
+        <f aca="false">6-powArthur!A92</f>
         <v>5</v>
       </c>
       <c r="C92" s="2" t="n">
@@ -5877,12 +6036,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B93" s="0" t="n">
-        <f aca="false">6-A93</f>
+        <f aca="false">6-powArthur!A93</f>
         <v>5</v>
       </c>
       <c r="C93" s="2" t="n">
@@ -5904,12 +6063,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B94" s="0" t="n">
-        <f aca="false">6-A94</f>
+        <f aca="false">6-powArthur!A94</f>
         <v>5</v>
       </c>
       <c r="C94" s="2" t="n">
@@ -5931,12 +6090,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B95" s="0" t="n">
-        <f aca="false">6-A95</f>
+        <f aca="false">6-powArthur!A95</f>
         <v>5</v>
       </c>
       <c r="C95" s="2" t="n">
@@ -5958,12 +6117,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B96" s="0" t="n">
-        <f aca="false">6-A96</f>
+        <f aca="false">6-powArthur!A96</f>
         <v>5</v>
       </c>
       <c r="C96" s="2" t="n">
@@ -5985,12 +6144,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B97" s="0" t="n">
-        <f aca="false">6-A97</f>
+        <f aca="false">6-powArthur!A97</f>
         <v>4</v>
       </c>
       <c r="C97" s="2" t="n">
@@ -6012,12 +6171,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B98" s="0" t="n">
-        <f aca="false">6-A98</f>
+        <f aca="false">6-powArthur!A98</f>
         <v>4</v>
       </c>
       <c r="C98" s="2" t="n">
@@ -6039,12 +6198,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B99" s="0" t="n">
-        <f aca="false">6-A99</f>
+        <f aca="false">6-powArthur!A99</f>
         <v>4</v>
       </c>
       <c r="C99" s="2" t="n">
@@ -6066,12 +6225,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B100" s="0" t="n">
-        <f aca="false">6-A100</f>
+        <f aca="false">6-powArthur!A100</f>
         <v>4</v>
       </c>
       <c r="C100" s="2" t="n">
@@ -6093,12 +6252,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B101" s="0" t="n">
-        <f aca="false">6-A101</f>
+        <f aca="false">6-powArthur!A101</f>
         <v>4</v>
       </c>
       <c r="C101" s="2" t="n">
@@ -6120,12 +6279,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B102" s="0" t="n">
-        <f aca="false">6-A102</f>
+        <f aca="false">6-powArthur!A102</f>
         <v>4</v>
       </c>
       <c r="C102" s="2" t="n">
@@ -6147,12 +6306,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B103" s="0" t="n">
-        <f aca="false">6-A103</f>
+        <f aca="false">6-powArthur!A103</f>
         <v>4</v>
       </c>
       <c r="C103" s="2" t="n">
@@ -6174,12 +6333,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B104" s="0" t="n">
-        <f aca="false">6-A104</f>
+        <f aca="false">6-powArthur!A104</f>
         <v>2</v>
       </c>
       <c r="C104" s="2" t="n">
@@ -6201,12 +6360,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B105" s="0" t="n">
-        <f aca="false">6-A105</f>
+        <f aca="false">6-powArthur!A105</f>
         <v>4</v>
       </c>
       <c r="C105" s="2" t="n">
@@ -6228,12 +6387,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B106" s="0" t="n">
-        <f aca="false">6-A106</f>
+        <f aca="false">6-powArthur!A106</f>
         <v>5</v>
       </c>
       <c r="C106" s="2" t="n">
@@ -6255,12 +6414,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B107" s="0" t="n">
-        <f aca="false">6-A107</f>
+        <f aca="false">6-powArthur!A107</f>
         <v>4</v>
       </c>
       <c r="C107" s="2" t="n">
@@ -6282,12 +6441,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B108" s="0" t="n">
-        <f aca="false">6-A108</f>
+        <f aca="false">6-powArthur!A108</f>
         <v>4</v>
       </c>
       <c r="C108" s="2" t="n">
@@ -6309,12 +6468,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B109" s="0" t="n">
-        <f aca="false">6-A109</f>
+        <f aca="false">6-powArthur!A109</f>
         <v>4</v>
       </c>
       <c r="C109" s="2" t="n">
@@ -6336,12 +6495,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B110" s="0" t="n">
-        <f aca="false">6-A110</f>
+        <f aca="false">6-powArthur!A110</f>
         <v>5</v>
       </c>
       <c r="C110" s="2" t="n">
@@ -6363,12 +6522,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B111" s="0" t="n">
-        <f aca="false">6-A111</f>
+        <f aca="false">6-powArthur!A111</f>
         <v>4</v>
       </c>
       <c r="C111" s="2" t="n">
@@ -6390,12 +6549,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B112" s="0" t="n">
-        <f aca="false">6-A112</f>
+        <f aca="false">6-powArthur!A112</f>
         <v>4</v>
       </c>
       <c r="C112" s="2" t="n">
@@ -6417,12 +6576,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B113" s="0" t="n">
-        <f aca="false">6-A113</f>
+        <f aca="false">6-powArthur!A113</f>
         <v>4</v>
       </c>
       <c r="C113" s="2" t="n">
@@ -6444,12 +6603,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B114" s="0" t="n">
-        <f aca="false">6-A114</f>
+        <f aca="false">6-powArthur!A114</f>
         <v>4</v>
       </c>
       <c r="C114" s="2" t="n">
@@ -6471,12 +6630,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B115" s="0" t="n">
-        <f aca="false">6-A115</f>
+        <f aca="false">6-powArthur!A115</f>
         <v>1</v>
       </c>
       <c r="C115" s="2" t="n">
@@ -6498,12 +6657,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B116" s="0" t="n">
-        <f aca="false">6-A116</f>
+        <f aca="false">6-powArthur!A116</f>
         <v>4</v>
       </c>
       <c r="C116" s="2" t="n">
@@ -6525,12 +6684,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B117" s="0" t="n">
-        <f aca="false">6-A117</f>
+        <f aca="false">6-powArthur!A117</f>
         <v>5</v>
       </c>
       <c r="C117" s="2" t="n">
@@ -6552,12 +6711,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B118" s="0" t="n">
-        <f aca="false">6-A118</f>
+        <f aca="false">6-powArthur!A118</f>
         <v>4</v>
       </c>
       <c r="C118" s="2" t="n">
@@ -6579,12 +6738,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B119" s="0" t="n">
-        <f aca="false">6-A119</f>
+        <f aca="false">6-powArthur!A119</f>
         <v>5</v>
       </c>
       <c r="C119" s="2" t="n">
@@ -6606,12 +6765,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B120" s="0" t="n">
-        <f aca="false">6-A120</f>
+        <f aca="false">6-powArthur!A120</f>
         <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
@@ -6633,12 +6792,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B121" s="0" t="n">
-        <f aca="false">6-A121</f>
+        <f aca="false">6-powArthur!A121</f>
         <v>4</v>
       </c>
       <c r="C121" s="2" t="n">
@@ -6660,12 +6819,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B122" s="0" t="n">
-        <f aca="false">6-A122</f>
+        <f aca="false">6-powArthur!A122</f>
         <v>5</v>
       </c>
       <c r="C122" s="2" t="n">
@@ -6687,12 +6846,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B123" s="0" t="n">
-        <f aca="false">6-A123</f>
+        <f aca="false">6-powArthur!A123</f>
         <v>4</v>
       </c>
       <c r="C123" s="2" t="n">
@@ -6714,62 +6873,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3" t="n">
-        <v>1983.5</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3" t="n">
-        <v>1609</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3" t="n">
-        <v>3140</v>
-      </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5" t="n">
-        <v>2.073E-005</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="6" t="n">
-        <v>0.02461</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6" t="n">
-        <v>0.1398</v>
-      </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="7" t="n">
-        <v>0.1758</v>
-      </c>
-      <c r="H126" s="7"/>
-      <c r="I126" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6786,16 +6896,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I125" activeCellId="0" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8406,7 +8513,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="0" t="n">
-        <f aca="false">6-A63</f>
+        <f aca="false">6-powKevin!A63</f>
         <v>4</v>
       </c>
       <c r="C63" s="2" t="n">
@@ -8433,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="0" t="n">
-        <f aca="false">6-A64</f>
+        <f aca="false">6-powKevin!A64</f>
         <v>5</v>
       </c>
       <c r="C64" s="2" t="n">
@@ -8460,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="0" t="n">
-        <f aca="false">6-A65</f>
+        <f aca="false">6-powKevin!A65</f>
         <v>4</v>
       </c>
       <c r="C65" s="2" t="n">
@@ -8487,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="0" t="n">
-        <f aca="false">6-A66</f>
+        <f aca="false">6-powKevin!A66</f>
         <v>5</v>
       </c>
       <c r="C66" s="2" t="n">
@@ -8514,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="0" t="n">
-        <f aca="false">6-A67</f>
+        <f aca="false">6-powKevin!A67</f>
         <v>4</v>
       </c>
       <c r="C67" s="2" t="n">
@@ -8541,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="0" t="n">
-        <f aca="false">6-A68</f>
+        <f aca="false">6-powKevin!A68</f>
         <v>4</v>
       </c>
       <c r="C68" s="2" t="n">
@@ -8568,7 +8675,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="0" t="n">
-        <f aca="false">6-A69</f>
+        <f aca="false">6-powKevin!A69</f>
         <v>4</v>
       </c>
       <c r="C69" s="2" t="n">
@@ -8595,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="0" t="n">
-        <f aca="false">6-A70</f>
+        <f aca="false">6-powKevin!A70</f>
         <v>5</v>
       </c>
       <c r="C70" s="2" t="n">
@@ -8622,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="0" t="n">
-        <f aca="false">6-A71</f>
+        <f aca="false">6-powKevin!A71</f>
         <v>5</v>
       </c>
       <c r="C71" s="2" t="n">
@@ -8649,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="0" t="n">
-        <f aca="false">6-A72</f>
+        <f aca="false">6-powKevin!A72</f>
         <v>5</v>
       </c>
       <c r="C72" s="2" t="n">
@@ -8676,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="0" t="n">
-        <f aca="false">6-A73</f>
+        <f aca="false">6-powKevin!A73</f>
         <v>5</v>
       </c>
       <c r="C73" s="2" t="n">
@@ -8703,7 +8810,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="0" t="n">
-        <f aca="false">6-A74</f>
+        <f aca="false">6-powKevin!A74</f>
         <v>2</v>
       </c>
       <c r="C74" s="2" t="n">
@@ -8730,7 +8837,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="0" t="n">
-        <f aca="false">6-A75</f>
+        <f aca="false">6-powKevin!A75</f>
         <v>4</v>
       </c>
       <c r="C75" s="2" t="n">
@@ -8757,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="0" t="n">
-        <f aca="false">6-A76</f>
+        <f aca="false">6-powKevin!A76</f>
         <v>5</v>
       </c>
       <c r="C76" s="2" t="n">
@@ -8784,7 +8891,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="0" t="n">
-        <f aca="false">6-A77</f>
+        <f aca="false">6-powKevin!A77</f>
         <v>4</v>
       </c>
       <c r="C77" s="2" t="n">
@@ -8811,7 +8918,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="0" t="n">
-        <f aca="false">6-A78</f>
+        <f aca="false">6-powKevin!A78</f>
         <v>4</v>
       </c>
       <c r="C78" s="2" t="n">
@@ -8838,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="0" t="n">
-        <f aca="false">6-A79</f>
+        <f aca="false">6-powKevin!A79</f>
         <v>5</v>
       </c>
       <c r="C79" s="2" t="n">
@@ -8865,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="0" t="n">
-        <f aca="false">6-A80</f>
+        <f aca="false">6-powKevin!A80</f>
         <v>4</v>
       </c>
       <c r="C80" s="2" t="n">
@@ -8892,7 +8999,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="0" t="n">
-        <f aca="false">6-A81</f>
+        <f aca="false">6-powKevin!A81</f>
         <v>2</v>
       </c>
       <c r="C81" s="2" t="n">
@@ -8919,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="0" t="n">
-        <f aca="false">6-A82</f>
+        <f aca="false">6-powKevin!A82</f>
         <v>5</v>
       </c>
       <c r="C82" s="2" t="n">
@@ -8946,7 +9053,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="0" t="n">
-        <f aca="false">6-A83</f>
+        <f aca="false">6-powKevin!A83</f>
         <v>2</v>
       </c>
       <c r="C83" s="2" t="n">
@@ -8973,7 +9080,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="0" t="n">
-        <f aca="false">6-A84</f>
+        <f aca="false">6-powKevin!A84</f>
         <v>3</v>
       </c>
       <c r="C84" s="2" t="n">
@@ -9000,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="0" t="n">
-        <f aca="false">6-A85</f>
+        <f aca="false">6-powKevin!A85</f>
         <v>4</v>
       </c>
       <c r="C85" s="2" t="n">
@@ -9027,7 +9134,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="0" t="n">
-        <f aca="false">6-A86</f>
+        <f aca="false">6-powKevin!A86</f>
         <v>2</v>
       </c>
       <c r="C86" s="2" t="n">
@@ -9054,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="0" t="n">
-        <f aca="false">6-A87</f>
+        <f aca="false">6-powKevin!A87</f>
         <v>4</v>
       </c>
       <c r="C87" s="2" t="n">
@@ -9081,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="0" t="n">
-        <f aca="false">6-A88</f>
+        <f aca="false">6-powKevin!A88</f>
         <v>5</v>
       </c>
       <c r="C88" s="2" t="n">
@@ -9108,7 +9215,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="0" t="n">
-        <f aca="false">6-A89</f>
+        <f aca="false">6-powKevin!A89</f>
         <v>4</v>
       </c>
       <c r="C89" s="2" t="n">
@@ -9135,7 +9242,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="0" t="n">
-        <f aca="false">6-A90</f>
+        <f aca="false">6-powKevin!A90</f>
         <v>4</v>
       </c>
       <c r="C90" s="2" t="n">
@@ -9162,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="0" t="n">
-        <f aca="false">6-A91</f>
+        <f aca="false">6-powKevin!A91</f>
         <v>5</v>
       </c>
       <c r="C91" s="2" t="n">
@@ -9189,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="0" t="n">
-        <f aca="false">6-A92</f>
+        <f aca="false">6-powKevin!A92</f>
         <v>5</v>
       </c>
       <c r="C92" s="2" t="n">
@@ -9216,7 +9323,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="0" t="n">
-        <f aca="false">6-A93</f>
+        <f aca="false">6-powKevin!A93</f>
         <v>4</v>
       </c>
       <c r="C93" s="2" t="n">
@@ -9243,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="0" t="n">
-        <f aca="false">6-A94</f>
+        <f aca="false">6-powKevin!A94</f>
         <v>5</v>
       </c>
       <c r="C94" s="2" t="n">
@@ -9270,7 +9377,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="0" t="n">
-        <f aca="false">6-A95</f>
+        <f aca="false">6-powKevin!A95</f>
         <v>4</v>
       </c>
       <c r="C95" s="2" t="n">
@@ -9297,7 +9404,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="0" t="n">
-        <f aca="false">6-A96</f>
+        <f aca="false">6-powKevin!A96</f>
         <v>4</v>
       </c>
       <c r="C96" s="2" t="n">
@@ -9324,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="0" t="n">
-        <f aca="false">6-A97</f>
+        <f aca="false">6-powKevin!A97</f>
         <v>5</v>
       </c>
       <c r="C97" s="2" t="n">
@@ -9351,7 +9458,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="0" t="n">
-        <f aca="false">6-A98</f>
+        <f aca="false">6-powKevin!A98</f>
         <v>4</v>
       </c>
       <c r="C98" s="2" t="n">
@@ -9378,7 +9485,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="0" t="n">
-        <f aca="false">6-A99</f>
+        <f aca="false">6-powKevin!A99</f>
         <v>4</v>
       </c>
       <c r="C99" s="2" t="n">
@@ -9405,7 +9512,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="0" t="n">
-        <f aca="false">6-A100</f>
+        <f aca="false">6-powKevin!A100</f>
         <v>4</v>
       </c>
       <c r="C100" s="2" t="n">
@@ -9432,7 +9539,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="0" t="n">
-        <f aca="false">6-A101</f>
+        <f aca="false">6-powKevin!A101</f>
         <v>4</v>
       </c>
       <c r="C101" s="2" t="n">
@@ -9459,7 +9566,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="0" t="n">
-        <f aca="false">6-A102</f>
+        <f aca="false">6-powKevin!A102</f>
         <v>4</v>
       </c>
       <c r="C102" s="2" t="n">
@@ -9486,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="0" t="n">
-        <f aca="false">6-A103</f>
+        <f aca="false">6-powKevin!A103</f>
         <v>4</v>
       </c>
       <c r="C103" s="2" t="n">
@@ -9513,7 +9620,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="0" t="n">
-        <f aca="false">6-A104</f>
+        <f aca="false">6-powKevin!A104</f>
         <v>2</v>
       </c>
       <c r="C104" s="2" t="n">
@@ -9540,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="0" t="n">
-        <f aca="false">6-A105</f>
+        <f aca="false">6-powKevin!A105</f>
         <v>5</v>
       </c>
       <c r="C105" s="2" t="n">
@@ -9567,7 +9674,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="0" t="n">
-        <f aca="false">6-A106</f>
+        <f aca="false">6-powKevin!A106</f>
         <v>2</v>
       </c>
       <c r="C106" s="2" t="n">
@@ -9594,7 +9701,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="0" t="n">
-        <f aca="false">6-A107</f>
+        <f aca="false">6-powKevin!A107</f>
         <v>3</v>
       </c>
       <c r="C107" s="2" t="n">
@@ -9621,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="0" t="n">
-        <f aca="false">6-A108</f>
+        <f aca="false">6-powKevin!A108</f>
         <v>5</v>
       </c>
       <c r="C108" s="2" t="n">
@@ -9648,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="0" t="n">
-        <f aca="false">6-A109</f>
+        <f aca="false">6-powKevin!A109</f>
         <v>5</v>
       </c>
       <c r="C109" s="2" t="n">
@@ -9675,7 +9782,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="0" t="n">
-        <f aca="false">6-A110</f>
+        <f aca="false">6-powKevin!A110</f>
         <v>4</v>
       </c>
       <c r="C110" s="2" t="n">
@@ -9702,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="0" t="n">
-        <f aca="false">6-A111</f>
+        <f aca="false">6-powKevin!A111</f>
         <v>5</v>
       </c>
       <c r="C111" s="2" t="n">
@@ -9729,7 +9836,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="0" t="n">
-        <f aca="false">6-A112</f>
+        <f aca="false">6-powKevin!A112</f>
         <v>4</v>
       </c>
       <c r="C112" s="2" t="n">
@@ -9756,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="0" t="n">
-        <f aca="false">6-A113</f>
+        <f aca="false">6-powKevin!A113</f>
         <v>4</v>
       </c>
       <c r="C113" s="2" t="n">
@@ -9783,7 +9890,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="0" t="n">
-        <f aca="false">6-A114</f>
+        <f aca="false">6-powKevin!A114</f>
         <v>4</v>
       </c>
       <c r="C114" s="2" t="n">
@@ -9810,7 +9917,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="0" t="n">
-        <f aca="false">6-A115</f>
+        <f aca="false">6-powKevin!A115</f>
         <v>4</v>
       </c>
       <c r="C115" s="2" t="n">
@@ -9837,7 +9944,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="0" t="n">
-        <f aca="false">6-A116</f>
+        <f aca="false">6-powKevin!A116</f>
         <v>4</v>
       </c>
       <c r="C116" s="2" t="n">
@@ -9864,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="B117" s="0" t="n">
-        <f aca="false">6-A117</f>
+        <f aca="false">6-powKevin!A117</f>
         <v>5</v>
       </c>
       <c r="C117" s="2" t="n">
@@ -9891,7 +9998,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="0" t="n">
-        <f aca="false">6-A118</f>
+        <f aca="false">6-powKevin!A118</f>
         <v>4</v>
       </c>
       <c r="C118" s="2" t="n">
@@ -9918,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="0" t="n">
-        <f aca="false">6-A119</f>
+        <f aca="false">6-powKevin!A119</f>
         <v>5</v>
       </c>
       <c r="C119" s="2" t="n">
@@ -9945,7 +10052,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="0" t="n">
-        <f aca="false">6-A120</f>
+        <f aca="false">6-powKevin!A120</f>
         <v>4</v>
       </c>
       <c r="C120" s="2" t="n">
@@ -9972,7 +10079,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="0" t="n">
-        <f aca="false">6-A121</f>
+        <f aca="false">6-powKevin!A121</f>
         <v>4</v>
       </c>
       <c r="C121" s="2" t="n">
@@ -9999,7 +10106,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="0" t="n">
-        <f aca="false">6-A122</f>
+        <f aca="false">6-powKevin!A122</f>
         <v>4</v>
       </c>
       <c r="C122" s="2" t="n">
@@ -10026,7 +10133,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="0" t="n">
-        <f aca="false">6-A123</f>
+        <f aca="false">6-powKevin!A123</f>
         <v>4</v>
       </c>
       <c r="C123" s="2" t="n">
@@ -10048,62 +10155,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="n">
-        <v>6.971E-014</v>
-      </c>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6" t="n">
-        <v>6.849E-009</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="3" t="n">
-        <v>415.5</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3" t="n">
-        <v>2255</v>
-      </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5" t="n">
-        <v>531.5</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="6" t="n">
-        <v>2875</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6" t="n">
-        <v>8.189E-013</v>
-      </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="7" t="n">
-        <v>0.4351</v>
-      </c>
-      <c r="H126" s="7"/>
-      <c r="I126" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10113,4 +10173,449 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>704</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="n">
+        <v>3231</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="n">
+        <v>631.5</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="n">
+        <v>2704</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>2.879E-006</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="n">
+        <v>7.307E-008</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="n">
+        <v>1.419E-010</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5" t="n">
+        <v>0.6583</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="n">
+        <v>1983.5</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="n">
+        <v>1609</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="n">
+        <v>3140</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>2.073E-005</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="n">
+        <v>0.02461</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="n">
+        <v>0.1758</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>6.971E-014</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="n">
+        <v>6.849E-009</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="n">
+        <v>415.5</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="n">
+        <v>2255</v>
+      </c>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="18" t="n">
+        <v>531.5</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16" t="n">
+        <v>2875</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="n">
+        <v>8.189E-013</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="19" t="n">
+        <v>0.4351</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22" t="n">
+        <v>0.852459</v>
+      </c>
+      <c r="C13" s="21" t="n">
+        <v>0.3360656</v>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>0.2377049</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>0.2459016</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>1.278689</v>
+      </c>
+      <c r="C24" s="24" t="n">
+        <v>1.819672</v>
+      </c>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="24" t="n">
+        <v>1.393443</v>
+      </c>
+      <c r="C25" s="24" t="n">
+        <v>1.122951</v>
+      </c>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="24" t="n">
+        <v>1.278689</v>
+      </c>
+      <c r="C26" s="24" t="n">
+        <v>1.819672</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="24" t="n">
+        <v>1.606557</v>
+      </c>
+      <c r="C27" s="24" t="n">
+        <v>1.721311</v>
+      </c>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="24" t="n">
+        <v>1.194078</v>
+      </c>
+      <c r="C29" s="24" t="n">
+        <v>1.253203</v>
+      </c>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="24" t="n">
+        <v>1.110114</v>
+      </c>
+      <c r="C30" s="24" t="n">
+        <v>1.080082</v>
+      </c>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="24" t="n">
+        <v>1.194078</v>
+      </c>
+      <c r="C31" s="24" t="n">
+        <v>1.253203</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="24" t="n">
+        <v>1.087551</v>
+      </c>
+      <c r="C32" s="24" t="n">
+        <v>1.085306</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A22:D22"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ToM/compVsMimic_Etude/EtudeFinale/ComportementPow.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/ComportementPow.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t xml:space="preserve">H1</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t xml:space="preserve">Kevin Vs Arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutre</t>
   </si>
   <si>
     <t xml:space="preserve">X__1 </t>
@@ -233,7 +242,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,10 +339,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -415,7 +420,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F42:G49 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3638,7 +3643,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="F42:G49 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6863,7 +6868,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A125" activeCellId="1" sqref="F42:G49 A125"/>
+      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10085,8 +10090,8 @@
   </sheetPr>
   <dimension ref="A1:J65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42:G49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10611,200 +10616,201 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="21" t="n">
         <v>1.942623</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="21" t="n">
         <v>0.9297576</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="21" t="n">
         <v>2.467213</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="21" t="n">
         <v>1.114773</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="21" t="n">
         <v>1.991803</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="21" t="n">
         <v>0.9403349</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="0" t="n">
+      <c r="A43" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="21" t="n">
         <v>2.696721</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="21" t="n">
         <v>1.149124</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="21" t="n">
         <v>2.713115</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="21" t="n">
         <v>1.063904</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="21" t="n">
         <v>2.983607</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="21" t="n">
         <v>1.083182</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="21" t="n">
         <v>3.803279</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="21" t="n">
         <v>1.049513</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="21" t="n">
         <v>3.704918</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="21" t="n">
         <v>1.103627</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="21" t="n">
         <v>3.811475</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="21" t="n">
         <v>0.938893</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="0" t="n">
+      <c r="A45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="21" t="n">
         <v>2.901639</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="21" t="n">
         <v>1.235895</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="21" t="n">
         <v>3.368852</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="21" t="n">
         <v>1.038123</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="21" t="n">
         <v>2.877049</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="21" t="n">
         <v>1.117686</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="21" t="n">
         <v>2.237705</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="21" t="n">
         <v>1.036948</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="21" t="n">
         <v>3.090164</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="21" t="n">
         <v>1.199202</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="21" t="n">
         <v>2.278689</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="21" t="n">
         <v>1.00628</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="0" t="n">
+      <c r="A47" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="21" t="n">
         <v>3.393443</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="21" t="n">
         <v>1.032988</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="21" t="n">
         <v>3.327869</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="21" t="n">
         <v>1.063618</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="21" t="n">
         <v>3.598361</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="21" t="n">
         <v>1.00954</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="21" t="n">
         <v>3.081967</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="21" t="n">
         <v>1.117776</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="21" t="n">
         <v>3.229508</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="21" t="n">
         <v>1.12659</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="21" t="n">
         <v>3.02459</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="21" t="n">
         <v>1.124212</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="0" t="n">
+      <c r="A49" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="21" t="n">
         <v>3.016393</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="21" t="n">
         <v>1.020319</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="21" t="n">
         <v>2.983607</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="21" t="n">
         <v>1.090785</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="21" t="n">
         <v>3.172131</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="21" t="n">
         <v>1.103658</v>
       </c>
     </row>
@@ -10894,7 +10900,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F42:G49 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/ToM/compVsMimic_Etude/EtudeFinale/ComportementPow.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/ComportementPow.xlsx
@@ -241,48 +241,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -292,10 +250,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,8 +516,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564765184"/>
-        <c:axId val="572826176"/>
+        <c:axId val="534607872"/>
+        <c:axId val="533925824"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -770,11 +770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="564765184"/>
-        <c:axId val="572826176"/>
+        <c:axId val="534607872"/>
+        <c:axId val="533925824"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="564765184"/>
+        <c:axId val="534607872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +783,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572826176"/>
+        <c:crossAx val="533925824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -791,7 +791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572826176"/>
+        <c:axId val="533925824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -813,7 +813,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564765184"/>
+        <c:crossAx val="534607872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1003,8 +1003,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89699328"/>
-        <c:axId val="572827328"/>
+        <c:axId val="536061440"/>
+        <c:axId val="533928128"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1257,11 +1257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89699328"/>
-        <c:axId val="572827328"/>
+        <c:axId val="536061440"/>
+        <c:axId val="533928128"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="89699328"/>
+        <c:axId val="536061440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1270,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572827328"/>
+        <c:crossAx val="533928128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,7 +1278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572827328"/>
+        <c:axId val="533928128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1300,7 +1300,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89699328"/>
+        <c:crossAx val="536061440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1490,8 +1490,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="565019648"/>
-        <c:axId val="572830208"/>
+        <c:axId val="536059904"/>
+        <c:axId val="536117824"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1744,11 +1744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="565019648"/>
-        <c:axId val="572830208"/>
+        <c:axId val="536059904"/>
+        <c:axId val="536117824"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="565019648"/>
+        <c:axId val="536059904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1757,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572830208"/>
+        <c:crossAx val="536117824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1765,7 +1765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572830208"/>
+        <c:axId val="536117824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1787,7 +1787,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565019648"/>
+        <c:crossAx val="536059904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2140,11 +2140,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.47153</cdr:x>
+      <cdr:x>0.46734</cdr:x>
       <cdr:y>0.23486</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.54236</cdr:x>
+      <cdr:x>0.53817</cdr:x>
       <cdr:y>0.32332</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -2154,8 +2154,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2155825" y="708025"/>
-          <a:ext cx="323835" cy="266677"/>
+          <a:off x="2122812" y="708024"/>
+          <a:ext cx="321736" cy="266677"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2317,8 +2317,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1343025" y="704860"/>
-          <a:ext cx="323835" cy="266677"/>
+          <a:off x="1334320" y="704858"/>
+          <a:ext cx="321736" cy="266677"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2437,12 +2437,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.47153</cdr:x>
-      <cdr:y>0.23486</cdr:y>
+      <cdr:x>0.64348</cdr:x>
+      <cdr:y>0.2317</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.54236</cdr:x>
-      <cdr:y>0.32332</cdr:y>
+      <cdr:x>0.71431</cdr:x>
+      <cdr:y>0.32016</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2451,8 +2451,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2155825" y="708025"/>
-          <a:ext cx="323835" cy="266677"/>
+          <a:off x="2922912" y="698499"/>
+          <a:ext cx="321736" cy="266677"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4616,7 +4616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4624,1606 +4626,1606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="14"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>3</v>
-      </c>
-      <c r="B2" s="15">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15">
-        <v>4</v>
-      </c>
-      <c r="G2" s="15">
-        <v>2</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
-        <v>5</v>
-      </c>
-      <c r="D3" s="15">
-        <v>4</v>
-      </c>
-      <c r="E3" s="15">
-        <v>5</v>
-      </c>
-      <c r="F3" s="15">
-        <v>2</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15">
-        <v>4</v>
-      </c>
-      <c r="G4" s="15">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15">
-        <v>4</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
-        <v>5</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>5</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="15">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15">
-        <v>4</v>
-      </c>
-      <c r="G7" s="15">
-        <v>4</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>3</v>
-      </c>
-      <c r="G8" s="15">
-        <v>3</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2</v>
-      </c>
-      <c r="F9" s="15">
-        <v>4</v>
-      </c>
-      <c r="G9" s="15">
-        <v>3</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
-        <v>2</v>
-      </c>
-      <c r="F10" s="15">
-        <v>4</v>
-      </c>
-      <c r="G10" s="15">
-        <v>4</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15">
-        <v>3</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
-        <v>3</v>
-      </c>
-      <c r="F11" s="15">
-        <v>5</v>
-      </c>
-      <c r="G11" s="15">
-        <v>3</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>2</v>
-      </c>
-      <c r="B12" s="15">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15">
-        <v>2</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>3</v>
-      </c>
-      <c r="G12" s="15">
-        <v>5</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="15">
-        <v>4</v>
-      </c>
-      <c r="C13" s="15">
-        <v>4</v>
-      </c>
-      <c r="D13" s="15">
-        <v>3</v>
-      </c>
-      <c r="E13" s="15">
-        <v>2</v>
-      </c>
-      <c r="F13" s="15">
-        <v>3</v>
-      </c>
-      <c r="G13" s="15">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>2</v>
-      </c>
-      <c r="B14" s="15">
-        <v>4</v>
-      </c>
-      <c r="C14" s="15">
-        <v>5</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3</v>
-      </c>
-      <c r="E14" s="15">
-        <v>3</v>
-      </c>
-      <c r="F14" s="15">
-        <v>4</v>
-      </c>
-      <c r="G14" s="15">
-        <v>2</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="15">
-        <v>4</v>
-      </c>
-      <c r="G15" s="15">
-        <v>4</v>
-      </c>
-      <c r="H15" s="15">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15">
-        <v>2</v>
-      </c>
-      <c r="C16" s="15">
-        <v>2</v>
-      </c>
-      <c r="D16" s="15">
-        <v>5</v>
-      </c>
-      <c r="E16" s="15">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15">
-        <v>3</v>
-      </c>
-      <c r="G16" s="15">
-        <v>4</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>4</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15">
-        <v>4</v>
-      </c>
-      <c r="E17" s="15">
-        <v>4</v>
-      </c>
-      <c r="F17" s="15">
-        <v>2</v>
-      </c>
-      <c r="G17" s="15">
-        <v>2</v>
-      </c>
-      <c r="H17" s="15">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15">
-        <v>1</v>
-      </c>
-      <c r="C18" s="15">
-        <v>4</v>
-      </c>
-      <c r="D18" s="15">
-        <v>3</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15">
-        <v>4</v>
-      </c>
-      <c r="G18" s="15">
-        <v>4</v>
-      </c>
-      <c r="H18" s="15">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>1</v>
-      </c>
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="15">
-        <v>4</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2</v>
-      </c>
-      <c r="F19" s="15">
-        <v>4</v>
-      </c>
-      <c r="G19" s="15">
-        <v>4</v>
-      </c>
-      <c r="H19" s="15">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>2</v>
-      </c>
-      <c r="B20" s="15">
-        <v>4</v>
-      </c>
-      <c r="C20" s="15">
-        <v>5</v>
-      </c>
-      <c r="D20" s="15">
-        <v>4</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15">
-        <v>4</v>
-      </c>
-      <c r="G20" s="15">
-        <v>3</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>2</v>
-      </c>
-      <c r="B21" s="15">
-        <v>4</v>
-      </c>
-      <c r="C21" s="15">
-        <v>4</v>
-      </c>
-      <c r="D21" s="15">
-        <v>2</v>
-      </c>
-      <c r="E21" s="15">
-        <v>2</v>
-      </c>
-      <c r="F21" s="15">
-        <v>4</v>
-      </c>
-      <c r="G21" s="15">
-        <v>4</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>1</v>
-      </c>
-      <c r="B22" s="15">
-        <v>4</v>
-      </c>
-      <c r="C22" s="15">
-        <v>2</v>
-      </c>
-      <c r="D22" s="15">
-        <v>2</v>
-      </c>
-      <c r="E22" s="15">
-        <v>2</v>
-      </c>
-      <c r="F22" s="15">
-        <v>4</v>
-      </c>
-      <c r="G22" s="15">
-        <v>3</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>2</v>
-      </c>
-      <c r="B23" s="15">
-        <v>2</v>
-      </c>
-      <c r="C23" s="15">
-        <v>3</v>
-      </c>
-      <c r="D23" s="15">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
-        <v>2</v>
-      </c>
-      <c r="G23" s="15">
-        <v>2</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>2</v>
-      </c>
-      <c r="B24" s="15">
-        <v>4</v>
-      </c>
-      <c r="C24" s="15">
-        <v>5</v>
-      </c>
-      <c r="D24" s="15">
-        <v>5</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2</v>
-      </c>
-      <c r="F24" s="15">
-        <v>3</v>
-      </c>
-      <c r="G24" s="15">
-        <v>4</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>2</v>
-      </c>
-      <c r="B25" s="15">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15">
-        <v>4</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15">
-        <v>1</v>
-      </c>
-      <c r="F25" s="15">
-        <v>5</v>
-      </c>
-      <c r="G25" s="15">
-        <v>4</v>
-      </c>
-      <c r="H25" s="15">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>1</v>
-      </c>
-      <c r="B26" s="15">
-        <v>1</v>
-      </c>
-      <c r="C26" s="15">
-        <v>4</v>
-      </c>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
-      <c r="E26" s="15">
-        <v>1</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15">
-        <v>4</v>
-      </c>
-      <c r="H26" s="15">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>1</v>
-      </c>
-      <c r="B27" s="15">
-        <v>2</v>
-      </c>
-      <c r="C27" s="15">
-        <v>3</v>
-      </c>
-      <c r="D27" s="15">
-        <v>2</v>
-      </c>
-      <c r="E27" s="15">
-        <v>1</v>
-      </c>
-      <c r="F27" s="15">
-        <v>4</v>
-      </c>
-      <c r="G27" s="15">
-        <v>5</v>
-      </c>
-      <c r="H27" s="15">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>2</v>
-      </c>
-      <c r="B28" s="15">
-        <v>3</v>
-      </c>
-      <c r="C28" s="15">
-        <v>5</v>
-      </c>
-      <c r="D28" s="15">
-        <v>3</v>
-      </c>
-      <c r="E28" s="15">
-        <v>3</v>
-      </c>
-      <c r="F28" s="15">
-        <v>3</v>
-      </c>
-      <c r="G28" s="15">
-        <v>2</v>
-      </c>
-      <c r="H28" s="15">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>2</v>
-      </c>
-      <c r="B29" s="15">
-        <v>2</v>
-      </c>
-      <c r="C29" s="15">
-        <v>4</v>
-      </c>
-      <c r="D29" s="15">
-        <v>2</v>
-      </c>
-      <c r="E29" s="15">
-        <v>2</v>
-      </c>
-      <c r="F29" s="15">
-        <v>2</v>
-      </c>
-      <c r="G29" s="15">
-        <v>4</v>
-      </c>
-      <c r="H29" s="15">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>3</v>
-      </c>
-      <c r="B30" s="15">
-        <v>2</v>
-      </c>
-      <c r="C30" s="15">
-        <v>3</v>
-      </c>
-      <c r="D30" s="15">
-        <v>4</v>
-      </c>
-      <c r="E30" s="15">
-        <v>4</v>
-      </c>
-      <c r="F30" s="15">
-        <v>2</v>
-      </c>
-      <c r="G30" s="15">
-        <v>2</v>
-      </c>
-      <c r="H30" s="15">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>3</v>
-      </c>
-      <c r="B31" s="15">
-        <v>4</v>
-      </c>
-      <c r="C31" s="15">
-        <v>3</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
-        <v>2</v>
-      </c>
-      <c r="F31" s="15">
-        <v>5</v>
-      </c>
-      <c r="G31" s="15">
-        <v>4</v>
-      </c>
-      <c r="H31" s="15">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>1</v>
-      </c>
-      <c r="B32" s="15">
-        <v>4</v>
-      </c>
-      <c r="C32" s="15">
-        <v>4</v>
-      </c>
-      <c r="D32" s="15">
-        <v>2</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1</v>
-      </c>
-      <c r="F32" s="15">
-        <v>4</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>2</v>
-      </c>
-      <c r="B33" s="15">
-        <v>2</v>
-      </c>
-      <c r="C33" s="15">
-        <v>2</v>
-      </c>
-      <c r="D33" s="15">
-        <v>4</v>
-      </c>
-      <c r="E33" s="15">
-        <v>4</v>
-      </c>
-      <c r="F33" s="15">
-        <v>4</v>
-      </c>
-      <c r="G33" s="15">
-        <v>2</v>
-      </c>
-      <c r="H33" s="15">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>4</v>
-      </c>
-      <c r="B34" s="15">
-        <v>2</v>
-      </c>
-      <c r="C34" s="15">
-        <v>5</v>
-      </c>
-      <c r="D34" s="15">
-        <v>3</v>
-      </c>
-      <c r="E34" s="15">
-        <v>2</v>
-      </c>
-      <c r="F34" s="15">
-        <v>3</v>
-      </c>
-      <c r="G34" s="15">
-        <v>3</v>
-      </c>
-      <c r="H34" s="15">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>2</v>
-      </c>
-      <c r="B35" s="15">
-        <v>2</v>
-      </c>
-      <c r="C35" s="15">
-        <v>5</v>
-      </c>
-      <c r="D35" s="15">
-        <v>2</v>
-      </c>
-      <c r="E35" s="15">
-        <v>2</v>
-      </c>
-      <c r="F35" s="15">
-        <v>2</v>
-      </c>
-      <c r="G35" s="15">
-        <v>3</v>
-      </c>
-      <c r="H35" s="15">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>1</v>
-      </c>
-      <c r="B36" s="15">
-        <v>5</v>
-      </c>
-      <c r="C36" s="15">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15">
-        <v>1</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1</v>
-      </c>
-      <c r="F36" s="15">
-        <v>5</v>
-      </c>
-      <c r="G36" s="15">
-        <v>4</v>
-      </c>
-      <c r="H36" s="15">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>1</v>
-      </c>
-      <c r="B37" s="15">
-        <v>4</v>
-      </c>
-      <c r="C37" s="15">
-        <v>4</v>
-      </c>
-      <c r="D37" s="15">
-        <v>1</v>
-      </c>
-      <c r="E37" s="15">
-        <v>1</v>
-      </c>
-      <c r="F37" s="15">
-        <v>5</v>
-      </c>
-      <c r="G37" s="15">
-        <v>1</v>
-      </c>
-      <c r="H37" s="15">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>2</v>
-      </c>
-      <c r="B38" s="15">
-        <v>4</v>
-      </c>
-      <c r="C38" s="15">
-        <v>4</v>
-      </c>
-      <c r="D38" s="15">
-        <v>2</v>
-      </c>
-      <c r="E38" s="15">
-        <v>2</v>
-      </c>
-      <c r="F38" s="15">
-        <v>3</v>
-      </c>
-      <c r="G38" s="15">
-        <v>2</v>
-      </c>
-      <c r="H38" s="15">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>2</v>
-      </c>
-      <c r="B39" s="15">
-        <v>2</v>
-      </c>
-      <c r="C39" s="15">
-        <v>2</v>
-      </c>
-      <c r="D39" s="15">
-        <v>4</v>
-      </c>
-      <c r="E39" s="15">
-        <v>2</v>
-      </c>
-      <c r="F39" s="15">
-        <v>2</v>
-      </c>
-      <c r="G39" s="15">
-        <v>1</v>
-      </c>
-      <c r="H39" s="15">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>2</v>
-      </c>
-      <c r="B40" s="15">
-        <v>2</v>
-      </c>
-      <c r="C40" s="15">
-        <v>4</v>
-      </c>
-      <c r="D40" s="15">
-        <v>4</v>
-      </c>
-      <c r="E40" s="15">
-        <v>2</v>
-      </c>
-      <c r="F40" s="15">
-        <v>4</v>
-      </c>
-      <c r="G40" s="15">
-        <v>4</v>
-      </c>
-      <c r="H40" s="15">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>2</v>
-      </c>
-      <c r="B41" s="15">
-        <v>3</v>
-      </c>
-      <c r="C41" s="15">
-        <v>4</v>
-      </c>
-      <c r="D41" s="15">
-        <v>2</v>
-      </c>
-      <c r="E41" s="15">
-        <v>2</v>
-      </c>
-      <c r="F41" s="15">
-        <v>3</v>
-      </c>
-      <c r="G41" s="15">
-        <v>2</v>
-      </c>
-      <c r="H41" s="15">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>2</v>
-      </c>
-      <c r="B42" s="15">
-        <v>5</v>
-      </c>
-      <c r="C42" s="15">
-        <v>5</v>
-      </c>
-      <c r="D42" s="15">
-        <v>3</v>
-      </c>
-      <c r="E42" s="15">
-        <v>1</v>
-      </c>
-      <c r="F42" s="15">
-        <v>2</v>
-      </c>
-      <c r="G42" s="15">
-        <v>5</v>
-      </c>
-      <c r="H42" s="15">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>2</v>
-      </c>
-      <c r="B43" s="15">
-        <v>2</v>
-      </c>
-      <c r="C43" s="15">
-        <v>2</v>
-      </c>
-      <c r="D43" s="15">
-        <v>1</v>
-      </c>
-      <c r="E43" s="15">
-        <v>1</v>
-      </c>
-      <c r="F43" s="15">
-        <v>2</v>
-      </c>
-      <c r="G43" s="15">
-        <v>4</v>
-      </c>
-      <c r="H43" s="15">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>1</v>
-      </c>
-      <c r="B44" s="15">
-        <v>1</v>
-      </c>
-      <c r="C44" s="15">
-        <v>2</v>
-      </c>
-      <c r="D44" s="15">
-        <v>1</v>
-      </c>
-      <c r="E44" s="15">
-        <v>1</v>
-      </c>
-      <c r="F44" s="15">
-        <v>2</v>
-      </c>
-      <c r="G44" s="15">
-        <v>3</v>
-      </c>
-      <c r="H44" s="15">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>2</v>
-      </c>
-      <c r="B45" s="15">
-        <v>1</v>
-      </c>
-      <c r="C45" s="15">
-        <v>4</v>
-      </c>
-      <c r="D45" s="15">
-        <v>3</v>
-      </c>
-      <c r="E45" s="15">
-        <v>4</v>
-      </c>
-      <c r="F45" s="15">
-        <v>2</v>
-      </c>
-      <c r="G45" s="15">
-        <v>3</v>
-      </c>
-      <c r="H45" s="15">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>2</v>
-      </c>
-      <c r="B46" s="15">
-        <v>2</v>
-      </c>
-      <c r="C46" s="15">
-        <v>5</v>
-      </c>
-      <c r="D46" s="15">
-        <v>4</v>
-      </c>
-      <c r="E46" s="15">
-        <v>2</v>
-      </c>
-      <c r="F46" s="15">
-        <v>4</v>
-      </c>
-      <c r="G46" s="15">
-        <v>4</v>
-      </c>
-      <c r="H46" s="15">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>1</v>
-      </c>
-      <c r="B47" s="15">
-        <v>4</v>
-      </c>
-      <c r="C47" s="15">
-        <v>4</v>
-      </c>
-      <c r="D47" s="15">
-        <v>2</v>
-      </c>
-      <c r="E47" s="15">
-        <v>1</v>
-      </c>
-      <c r="F47" s="15">
-        <v>2</v>
-      </c>
-      <c r="G47" s="15">
-        <v>3</v>
-      </c>
-      <c r="H47" s="15">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <v>2</v>
-      </c>
-      <c r="B48" s="15">
-        <v>3</v>
-      </c>
-      <c r="C48" s="15">
-        <v>4</v>
-      </c>
-      <c r="D48" s="15">
-        <v>4</v>
-      </c>
-      <c r="E48" s="15">
-        <v>2</v>
-      </c>
-      <c r="F48" s="15">
-        <v>4</v>
-      </c>
-      <c r="G48" s="15">
-        <v>2</v>
-      </c>
-      <c r="H48" s="15">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <v>3</v>
-      </c>
-      <c r="B49" s="15">
-        <v>4</v>
-      </c>
-      <c r="C49" s="15">
-        <v>4</v>
-      </c>
-      <c r="D49" s="15">
-        <v>2</v>
-      </c>
-      <c r="E49" s="15">
-        <v>2</v>
-      </c>
-      <c r="F49" s="15">
-        <v>4</v>
-      </c>
-      <c r="G49" s="15">
-        <v>2</v>
-      </c>
-      <c r="H49" s="15">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <v>1</v>
-      </c>
-      <c r="B50" s="15">
-        <v>1</v>
-      </c>
-      <c r="C50" s="15">
-        <v>2</v>
-      </c>
-      <c r="D50" s="15">
-        <v>1</v>
-      </c>
-      <c r="E50" s="15">
-        <v>3</v>
-      </c>
-      <c r="F50" s="15">
-        <v>4</v>
-      </c>
-      <c r="G50" s="15">
-        <v>3</v>
-      </c>
-      <c r="H50" s="15">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>3</v>
-      </c>
-      <c r="B51" s="15">
-        <v>2</v>
-      </c>
-      <c r="C51" s="15">
-        <v>1</v>
-      </c>
-      <c r="D51" s="15">
-        <v>3</v>
-      </c>
-      <c r="E51" s="15">
-        <v>4</v>
-      </c>
-      <c r="F51" s="15">
-        <v>2</v>
-      </c>
-      <c r="G51" s="15">
-        <v>4</v>
-      </c>
-      <c r="H51" s="15">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <v>2</v>
-      </c>
-      <c r="B52" s="15">
-        <v>2</v>
-      </c>
-      <c r="C52" s="15">
-        <v>2</v>
-      </c>
-      <c r="D52" s="15">
-        <v>4</v>
-      </c>
-      <c r="E52" s="15">
-        <v>2</v>
-      </c>
-      <c r="F52" s="15">
-        <v>2</v>
-      </c>
-      <c r="G52" s="15">
-        <v>4</v>
-      </c>
-      <c r="H52" s="15">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
-        <v>2</v>
-      </c>
-      <c r="B53" s="15">
-        <v>2</v>
-      </c>
-      <c r="C53" s="15">
-        <v>4</v>
-      </c>
-      <c r="D53" s="15">
-        <v>1</v>
-      </c>
-      <c r="E53" s="15">
-        <v>2</v>
-      </c>
-      <c r="F53" s="15">
-        <v>5</v>
-      </c>
-      <c r="G53" s="15">
-        <v>2</v>
-      </c>
-      <c r="H53" s="15">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>3</v>
-      </c>
-      <c r="B54" s="15">
-        <v>3</v>
-      </c>
-      <c r="C54" s="15">
-        <v>4</v>
-      </c>
-      <c r="D54" s="15">
-        <v>5</v>
-      </c>
-      <c r="E54" s="15">
-        <v>2</v>
-      </c>
-      <c r="F54" s="15">
-        <v>5</v>
-      </c>
-      <c r="G54" s="15">
-        <v>1</v>
-      </c>
-      <c r="H54" s="15">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
-        <v>2</v>
-      </c>
-      <c r="B55" s="15">
-        <v>4</v>
-      </c>
-      <c r="C55" s="15">
-        <v>4</v>
-      </c>
-      <c r="D55" s="15">
-        <v>2</v>
-      </c>
-      <c r="E55" s="15">
-        <v>2</v>
-      </c>
-      <c r="F55" s="15">
-        <v>2</v>
-      </c>
-      <c r="G55" s="15">
-        <v>4</v>
-      </c>
-      <c r="H55" s="15">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <v>1</v>
-      </c>
-      <c r="B56" s="15">
-        <v>2</v>
-      </c>
-      <c r="C56" s="15">
-        <v>4</v>
-      </c>
-      <c r="D56" s="15">
-        <v>2</v>
-      </c>
-      <c r="E56" s="15">
-        <v>2</v>
-      </c>
-      <c r="F56" s="15">
-        <v>4</v>
-      </c>
-      <c r="G56" s="15">
-        <v>3</v>
-      </c>
-      <c r="H56" s="15">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
-        <v>1</v>
-      </c>
-      <c r="B57" s="15">
-        <v>5</v>
-      </c>
-      <c r="C57" s="15">
-        <v>3</v>
-      </c>
-      <c r="D57" s="15">
-        <v>1</v>
-      </c>
-      <c r="E57" s="15">
-        <v>1</v>
-      </c>
-      <c r="F57" s="15">
-        <v>5</v>
-      </c>
-      <c r="G57" s="15">
-        <v>4</v>
-      </c>
-      <c r="H57" s="15">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
-        <v>3</v>
-      </c>
-      <c r="B58" s="15">
-        <v>2</v>
-      </c>
-      <c r="C58" s="15">
-        <v>3</v>
-      </c>
-      <c r="D58" s="15">
-        <v>4</v>
-      </c>
-      <c r="E58" s="15">
-        <v>2</v>
-      </c>
-      <c r="F58" s="15">
-        <v>3</v>
-      </c>
-      <c r="G58" s="15">
-        <v>5</v>
-      </c>
-      <c r="H58" s="15">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
-        <v>1</v>
-      </c>
-      <c r="B59" s="15">
-        <v>4</v>
-      </c>
-      <c r="C59" s="15">
-        <v>4</v>
-      </c>
-      <c r="D59" s="15">
-        <v>1</v>
-      </c>
-      <c r="E59" s="15">
-        <v>2</v>
-      </c>
-      <c r="F59" s="15">
-        <v>4</v>
-      </c>
-      <c r="G59" s="15">
-        <v>2</v>
-      </c>
-      <c r="H59" s="15">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
-        <v>2</v>
-      </c>
-      <c r="B60" s="15">
-        <v>3</v>
-      </c>
-      <c r="C60" s="15">
-        <v>5</v>
-      </c>
-      <c r="D60" s="15">
-        <v>3</v>
-      </c>
-      <c r="E60" s="15">
-        <v>2</v>
-      </c>
-      <c r="F60" s="15">
-        <v>2</v>
-      </c>
-      <c r="G60" s="15">
-        <v>3</v>
-      </c>
-      <c r="H60" s="15">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
-        <v>4</v>
-      </c>
-      <c r="B61" s="15">
-        <v>2</v>
-      </c>
-      <c r="C61" s="15">
-        <v>3</v>
-      </c>
-      <c r="D61" s="15">
-        <v>2</v>
-      </c>
-      <c r="E61" s="15">
-        <v>4</v>
-      </c>
-      <c r="F61" s="15">
-        <v>2</v>
-      </c>
-      <c r="G61" s="15">
-        <v>2</v>
-      </c>
-      <c r="H61" s="15">
+      <c r="A61" s="1">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <v>3</v>
-      </c>
-      <c r="B62" s="15">
-        <v>4</v>
-      </c>
-      <c r="C62" s="15">
-        <v>3</v>
-      </c>
-      <c r="D62" s="15">
-        <v>2</v>
-      </c>
-      <c r="E62" s="15">
-        <v>2</v>
-      </c>
-      <c r="F62" s="15">
-        <v>4</v>
-      </c>
-      <c r="G62" s="15">
-        <v>4</v>
-      </c>
-      <c r="H62" s="15">
+      <c r="A62" s="1">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6234,22 +6236,22 @@
       <c r="B63">
         <v>4</v>
       </c>
-      <c r="C63" s="15">
-        <v>4</v>
-      </c>
-      <c r="D63" s="15">
-        <v>2</v>
-      </c>
-      <c r="E63" s="15">
-        <v>2</v>
-      </c>
-      <c r="F63" s="15">
-        <v>4</v>
-      </c>
-      <c r="G63" s="15">
-        <v>2</v>
-      </c>
-      <c r="H63" s="15">
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6260,22 +6262,22 @@
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" s="15">
-        <v>5</v>
-      </c>
-      <c r="D64" s="15">
-        <v>5</v>
-      </c>
-      <c r="E64" s="15">
-        <v>4</v>
-      </c>
-      <c r="F64" s="15">
-        <v>2</v>
-      </c>
-      <c r="G64" s="15">
-        <v>1</v>
-      </c>
-      <c r="H64" s="15">
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6286,22 +6288,22 @@
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="15">
-        <v>4</v>
-      </c>
-      <c r="D65" s="15">
-        <v>4</v>
-      </c>
-      <c r="E65" s="15">
-        <v>2</v>
-      </c>
-      <c r="F65" s="15">
-        <v>4</v>
-      </c>
-      <c r="G65" s="15">
-        <v>3</v>
-      </c>
-      <c r="H65" s="15">
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6312,22 +6314,22 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="15">
-        <v>4</v>
-      </c>
-      <c r="D66" s="15">
-        <v>2</v>
-      </c>
-      <c r="E66" s="15">
-        <v>2</v>
-      </c>
-      <c r="F66" s="15">
-        <v>4</v>
-      </c>
-      <c r="G66" s="15">
-        <v>4</v>
-      </c>
-      <c r="H66" s="15">
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>4</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4</v>
+      </c>
+      <c r="H66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6338,22 +6340,22 @@
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67" s="15">
-        <v>5</v>
-      </c>
-      <c r="D67" s="15">
-        <v>1</v>
-      </c>
-      <c r="E67" s="15">
-        <v>1</v>
-      </c>
-      <c r="F67" s="15">
-        <v>4</v>
-      </c>
-      <c r="G67" s="15">
-        <v>2</v>
-      </c>
-      <c r="H67" s="15">
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6364,22 +6366,22 @@
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" s="15">
-        <v>4</v>
-      </c>
-      <c r="D68" s="15">
-        <v>2</v>
-      </c>
-      <c r="E68" s="15">
-        <v>1</v>
-      </c>
-      <c r="F68" s="15">
-        <v>3</v>
-      </c>
-      <c r="G68" s="15">
-        <v>3</v>
-      </c>
-      <c r="H68" s="15">
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
+      <c r="H68" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6390,22 +6392,22 @@
       <c r="B69">
         <v>3</v>
       </c>
-      <c r="C69" s="15">
-        <v>2</v>
-      </c>
-      <c r="D69" s="15">
-        <v>3</v>
-      </c>
-      <c r="E69" s="15">
-        <v>1</v>
-      </c>
-      <c r="F69" s="15">
-        <v>3</v>
-      </c>
-      <c r="G69" s="15">
-        <v>2</v>
-      </c>
-      <c r="H69" s="15">
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6416,22 +6418,22 @@
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70" s="15">
-        <v>4</v>
-      </c>
-      <c r="D70" s="15">
-        <v>2</v>
-      </c>
-      <c r="E70" s="15">
-        <v>2</v>
-      </c>
-      <c r="F70" s="15">
-        <v>4</v>
-      </c>
-      <c r="G70" s="15">
-        <v>2</v>
-      </c>
-      <c r="H70" s="15">
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>4</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6442,22 +6444,22 @@
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="15">
-        <v>5</v>
-      </c>
-      <c r="D71" s="15">
-        <v>2</v>
-      </c>
-      <c r="E71" s="15">
-        <v>2</v>
-      </c>
-      <c r="F71" s="15">
-        <v>4</v>
-      </c>
-      <c r="G71" s="15">
-        <v>4</v>
-      </c>
-      <c r="H71" s="15">
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6468,22 +6470,22 @@
       <c r="B72">
         <v>4</v>
       </c>
-      <c r="C72" s="15">
-        <v>3</v>
-      </c>
-      <c r="D72" s="15">
-        <v>3</v>
-      </c>
-      <c r="E72" s="15">
-        <v>2</v>
-      </c>
-      <c r="F72" s="15">
-        <v>3</v>
-      </c>
-      <c r="G72" s="15">
-        <v>5</v>
-      </c>
-      <c r="H72" s="15">
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6494,22 +6496,22 @@
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" s="15">
-        <v>5</v>
-      </c>
-      <c r="D73" s="15">
-        <v>2</v>
-      </c>
-      <c r="E73" s="15">
-        <v>2</v>
-      </c>
-      <c r="F73" s="15">
-        <v>4</v>
-      </c>
-      <c r="G73" s="15">
-        <v>4</v>
-      </c>
-      <c r="H73" s="15">
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6520,22 +6522,22 @@
       <c r="B74">
         <v>4</v>
       </c>
-      <c r="C74" s="15">
-        <v>5</v>
-      </c>
-      <c r="D74" s="15">
-        <v>3</v>
-      </c>
-      <c r="E74" s="15">
-        <v>2</v>
-      </c>
-      <c r="F74" s="15">
-        <v>4</v>
-      </c>
-      <c r="G74" s="15">
-        <v>3</v>
-      </c>
-      <c r="H74" s="15">
+      <c r="C74" s="1">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6546,22 +6548,22 @@
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75" s="15">
-        <v>4</v>
-      </c>
-      <c r="D75" s="15">
-        <v>4</v>
-      </c>
-      <c r="E75" s="15">
-        <v>4</v>
-      </c>
-      <c r="F75" s="15">
-        <v>4</v>
-      </c>
-      <c r="G75" s="15">
-        <v>2</v>
-      </c>
-      <c r="H75" s="15">
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2</v>
+      </c>
+      <c r="H75" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6572,22 +6574,22 @@
       <c r="B76">
         <v>3</v>
       </c>
-      <c r="C76" s="15">
-        <v>5</v>
-      </c>
-      <c r="D76" s="15">
-        <v>4</v>
-      </c>
-      <c r="E76" s="15">
-        <v>3</v>
-      </c>
-      <c r="F76" s="15">
-        <v>3</v>
-      </c>
-      <c r="G76" s="15">
-        <v>3</v>
-      </c>
-      <c r="H76" s="15">
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
+      <c r="H76" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6598,22 +6600,22 @@
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="C77" s="15">
-        <v>2</v>
-      </c>
-      <c r="D77" s="15">
-        <v>5</v>
-      </c>
-      <c r="E77" s="15">
-        <v>4</v>
-      </c>
-      <c r="F77" s="15">
-        <v>4</v>
-      </c>
-      <c r="G77" s="15">
-        <v>2</v>
-      </c>
-      <c r="H77" s="15">
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6624,22 +6626,22 @@
       <c r="B78">
         <v>2</v>
       </c>
-      <c r="C78" s="15">
-        <v>2</v>
-      </c>
-      <c r="D78" s="15">
-        <v>4</v>
-      </c>
-      <c r="E78" s="15">
-        <v>4</v>
-      </c>
-      <c r="F78" s="15">
-        <v>2</v>
-      </c>
-      <c r="G78" s="15">
-        <v>2</v>
-      </c>
-      <c r="H78" s="15">
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2</v>
+      </c>
+      <c r="H78" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6650,22 +6652,22 @@
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="15">
-        <v>5</v>
-      </c>
-      <c r="D79" s="15">
-        <v>5</v>
-      </c>
-      <c r="E79" s="15">
-        <v>2</v>
-      </c>
-      <c r="F79" s="15">
-        <v>4</v>
-      </c>
-      <c r="G79" s="15">
-        <v>4</v>
-      </c>
-      <c r="H79" s="15">
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6676,22 +6678,22 @@
       <c r="B80">
         <v>4</v>
       </c>
-      <c r="C80" s="15">
-        <v>4</v>
-      </c>
-      <c r="D80" s="15">
-        <v>4</v>
-      </c>
-      <c r="E80" s="15">
-        <v>2</v>
-      </c>
-      <c r="F80" s="15">
-        <v>4</v>
-      </c>
-      <c r="G80" s="15">
-        <v>4</v>
-      </c>
-      <c r="H80" s="15">
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6702,22 +6704,22 @@
       <c r="B81">
         <v>3</v>
       </c>
-      <c r="C81" s="15">
-        <v>5</v>
-      </c>
-      <c r="D81" s="15">
-        <v>4</v>
-      </c>
-      <c r="E81" s="15">
-        <v>2</v>
-      </c>
-      <c r="F81" s="15">
-        <v>4</v>
-      </c>
-      <c r="G81" s="15">
-        <v>3</v>
-      </c>
-      <c r="H81" s="15">
+      <c r="C81" s="1">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1">
+        <v>4</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6728,22 +6730,22 @@
       <c r="B82">
         <v>2</v>
       </c>
-      <c r="C82" s="15">
-        <v>4</v>
-      </c>
-      <c r="D82" s="15">
-        <v>2</v>
-      </c>
-      <c r="E82" s="15">
-        <v>2</v>
-      </c>
-      <c r="F82" s="15">
-        <v>4</v>
-      </c>
-      <c r="G82" s="15">
-        <v>4</v>
-      </c>
-      <c r="H82" s="15">
+      <c r="C82" s="1">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>4</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6754,22 +6756,22 @@
       <c r="B83">
         <v>2</v>
       </c>
-      <c r="C83" s="15">
-        <v>2</v>
-      </c>
-      <c r="D83" s="15">
-        <v>4</v>
-      </c>
-      <c r="E83" s="15">
-        <v>1</v>
-      </c>
-      <c r="F83" s="15">
-        <v>2</v>
-      </c>
-      <c r="G83" s="15">
-        <v>5</v>
-      </c>
-      <c r="H83" s="15">
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>5</v>
+      </c>
+      <c r="H83" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6780,22 +6782,22 @@
       <c r="B84">
         <v>2</v>
       </c>
-      <c r="C84" s="15">
-        <v>4</v>
-      </c>
-      <c r="D84" s="15">
-        <v>4</v>
-      </c>
-      <c r="E84" s="15">
-        <v>2</v>
-      </c>
-      <c r="F84" s="15">
-        <v>2</v>
-      </c>
-      <c r="G84" s="15">
-        <v>2</v>
-      </c>
-      <c r="H84" s="15">
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2</v>
+      </c>
+      <c r="H84" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6806,22 +6808,22 @@
       <c r="B85">
         <v>2</v>
       </c>
-      <c r="C85" s="15">
-        <v>5</v>
-      </c>
-      <c r="D85" s="15">
-        <v>5</v>
-      </c>
-      <c r="E85" s="15">
-        <v>4</v>
-      </c>
-      <c r="F85" s="15">
-        <v>5</v>
-      </c>
-      <c r="G85" s="15">
-        <v>5</v>
-      </c>
-      <c r="H85" s="15">
+      <c r="C85" s="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>5</v>
+      </c>
+      <c r="E85" s="1">
+        <v>4</v>
+      </c>
+      <c r="F85" s="1">
+        <v>5</v>
+      </c>
+      <c r="G85" s="1">
+        <v>5</v>
+      </c>
+      <c r="H85" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6832,22 +6834,22 @@
       <c r="B86">
         <v>5</v>
       </c>
-      <c r="C86" s="15">
-        <v>5</v>
-      </c>
-      <c r="D86" s="15">
-        <v>4</v>
-      </c>
-      <c r="E86" s="15">
-        <v>1</v>
-      </c>
-      <c r="F86" s="15">
-        <v>5</v>
-      </c>
-      <c r="G86" s="15">
-        <v>5</v>
-      </c>
-      <c r="H86" s="15">
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1">
+        <v>5</v>
+      </c>
+      <c r="H86" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6858,22 +6860,22 @@
       <c r="B87">
         <v>2</v>
       </c>
-      <c r="C87" s="15">
-        <v>4</v>
-      </c>
-      <c r="D87" s="15">
-        <v>5</v>
-      </c>
-      <c r="E87" s="15">
-        <v>1</v>
-      </c>
-      <c r="F87" s="15">
-        <v>3</v>
-      </c>
-      <c r="G87" s="15">
-        <v>4</v>
-      </c>
-      <c r="H87" s="15">
+      <c r="C87" s="1">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>3</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6884,22 +6886,22 @@
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88" s="15">
-        <v>5</v>
-      </c>
-      <c r="D88" s="15">
-        <v>2</v>
-      </c>
-      <c r="E88" s="15">
-        <v>2</v>
-      </c>
-      <c r="F88" s="15">
-        <v>2</v>
-      </c>
-      <c r="G88" s="15">
-        <v>5</v>
-      </c>
-      <c r="H88" s="15">
+      <c r="C88" s="1">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>5</v>
+      </c>
+      <c r="H88" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6910,22 +6912,22 @@
       <c r="B89">
         <v>2</v>
       </c>
-      <c r="C89" s="15">
-        <v>4</v>
-      </c>
-      <c r="D89" s="15">
-        <v>4</v>
-      </c>
-      <c r="E89" s="15">
-        <v>3</v>
-      </c>
-      <c r="F89" s="15">
-        <v>2</v>
-      </c>
-      <c r="G89" s="15">
-        <v>2</v>
-      </c>
-      <c r="H89" s="15">
+      <c r="C89" s="1">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2</v>
+      </c>
+      <c r="H89" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6936,22 +6938,22 @@
       <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" s="15">
-        <v>4</v>
-      </c>
-      <c r="D90" s="15">
-        <v>4</v>
-      </c>
-      <c r="E90" s="15">
-        <v>2</v>
-      </c>
-      <c r="F90" s="15">
-        <v>2</v>
-      </c>
-      <c r="G90" s="15">
-        <v>4</v>
-      </c>
-      <c r="H90" s="15">
+      <c r="C90" s="1">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>4</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6962,22 +6964,22 @@
       <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" s="15">
-        <v>4</v>
-      </c>
-      <c r="D91" s="15">
-        <v>4</v>
-      </c>
-      <c r="E91" s="15">
-        <v>4</v>
-      </c>
-      <c r="F91" s="15">
-        <v>4</v>
-      </c>
-      <c r="G91" s="15">
-        <v>3</v>
-      </c>
-      <c r="H91" s="15">
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1">
+        <v>4</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6988,22 +6990,22 @@
       <c r="B92">
         <v>4</v>
       </c>
-      <c r="C92" s="15">
-        <v>4</v>
-      </c>
-      <c r="D92" s="15">
-        <v>1</v>
-      </c>
-      <c r="E92" s="15">
-        <v>2</v>
-      </c>
-      <c r="F92" s="15">
-        <v>4</v>
-      </c>
-      <c r="G92" s="15">
-        <v>4</v>
-      </c>
-      <c r="H92" s="15">
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4</v>
+      </c>
+      <c r="G92" s="1">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7014,22 +7016,22 @@
       <c r="B93">
         <v>4</v>
       </c>
-      <c r="C93" s="15">
-        <v>5</v>
-      </c>
-      <c r="D93" s="15">
-        <v>4</v>
-      </c>
-      <c r="E93" s="15">
-        <v>1</v>
-      </c>
-      <c r="F93" s="15">
-        <v>4</v>
-      </c>
-      <c r="G93" s="15">
-        <v>2</v>
-      </c>
-      <c r="H93" s="15">
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7040,22 +7042,22 @@
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94" s="15">
-        <v>4</v>
-      </c>
-      <c r="D94" s="15">
-        <v>4</v>
-      </c>
-      <c r="E94" s="15">
-        <v>3</v>
-      </c>
-      <c r="F94" s="15">
-        <v>4</v>
-      </c>
-      <c r="G94" s="15">
-        <v>2</v>
-      </c>
-      <c r="H94" s="15">
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2</v>
+      </c>
+      <c r="H94" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7066,22 +7068,22 @@
       <c r="B95">
         <v>2</v>
       </c>
-      <c r="C95" s="15">
-        <v>3</v>
-      </c>
-      <c r="D95" s="15">
-        <v>1</v>
-      </c>
-      <c r="E95" s="15">
-        <v>5</v>
-      </c>
-      <c r="F95" s="15">
-        <v>3</v>
-      </c>
-      <c r="G95" s="15">
-        <v>4</v>
-      </c>
-      <c r="H95" s="15">
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>5</v>
+      </c>
+      <c r="F95" s="1">
+        <v>3</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7092,22 +7094,22 @@
       <c r="B96">
         <v>4</v>
       </c>
-      <c r="C96" s="15">
-        <v>4</v>
-      </c>
-      <c r="D96" s="15">
-        <v>3</v>
-      </c>
-      <c r="E96" s="15">
-        <v>4</v>
-      </c>
-      <c r="F96" s="15">
-        <v>4</v>
-      </c>
-      <c r="G96" s="15">
-        <v>3</v>
-      </c>
-      <c r="H96" s="15">
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4</v>
+      </c>
+      <c r="G96" s="1">
+        <v>3</v>
+      </c>
+      <c r="H96" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7118,22 +7120,22 @@
       <c r="B97">
         <v>4</v>
       </c>
-      <c r="C97" s="15">
-        <v>5</v>
-      </c>
-      <c r="D97" s="15">
-        <v>1</v>
-      </c>
-      <c r="E97" s="15">
-        <v>1</v>
-      </c>
-      <c r="F97" s="15">
-        <v>5</v>
-      </c>
-      <c r="G97" s="15">
-        <v>4</v>
-      </c>
-      <c r="H97" s="15">
+      <c r="C97" s="1">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>5</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7144,22 +7146,22 @@
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98" s="15">
-        <v>5</v>
-      </c>
-      <c r="D98" s="15">
-        <v>2</v>
-      </c>
-      <c r="E98" s="15">
-        <v>1</v>
-      </c>
-      <c r="F98" s="15">
-        <v>4</v>
-      </c>
-      <c r="G98" s="15">
-        <v>1</v>
-      </c>
-      <c r="H98" s="15">
+      <c r="C98" s="1">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>4</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7170,22 +7172,22 @@
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99" s="15">
-        <v>4</v>
-      </c>
-      <c r="D99" s="15">
-        <v>3</v>
-      </c>
-      <c r="E99" s="15">
-        <v>2</v>
-      </c>
-      <c r="F99" s="15">
-        <v>4</v>
-      </c>
-      <c r="G99" s="15">
-        <v>2</v>
-      </c>
-      <c r="H99" s="15">
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>4</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2</v>
+      </c>
+      <c r="H99" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7196,22 +7198,22 @@
       <c r="B100">
         <v>2</v>
       </c>
-      <c r="C100" s="15">
-        <v>3</v>
-      </c>
-      <c r="D100" s="15">
-        <v>4</v>
-      </c>
-      <c r="E100" s="15">
-        <v>3</v>
-      </c>
-      <c r="F100" s="15">
-        <v>3</v>
-      </c>
-      <c r="G100" s="15">
-        <v>1</v>
-      </c>
-      <c r="H100" s="15">
+      <c r="C100" s="1">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7222,22 +7224,22 @@
       <c r="B101">
         <v>2</v>
       </c>
-      <c r="C101" s="15">
-        <v>4</v>
-      </c>
-      <c r="D101" s="15">
-        <v>4</v>
-      </c>
-      <c r="E101" s="15">
-        <v>4</v>
-      </c>
-      <c r="F101" s="15">
-        <v>4</v>
-      </c>
-      <c r="G101" s="15">
-        <v>4</v>
-      </c>
-      <c r="H101" s="15">
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>4</v>
+      </c>
+      <c r="G101" s="1">
+        <v>4</v>
+      </c>
+      <c r="H101" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7248,22 +7250,22 @@
       <c r="B102">
         <v>2</v>
       </c>
-      <c r="C102" s="15">
-        <v>4</v>
-      </c>
-      <c r="D102" s="15">
-        <v>4</v>
-      </c>
-      <c r="E102" s="15">
-        <v>2</v>
-      </c>
-      <c r="F102" s="15">
-        <v>3</v>
-      </c>
-      <c r="G102" s="15">
-        <v>3</v>
-      </c>
-      <c r="H102" s="15">
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1">
+        <v>3</v>
+      </c>
+      <c r="H102" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7274,22 +7276,22 @@
       <c r="B103">
         <v>4</v>
       </c>
-      <c r="C103" s="15">
-        <v>5</v>
-      </c>
-      <c r="D103" s="15">
-        <v>4</v>
-      </c>
-      <c r="E103" s="15">
-        <v>2</v>
-      </c>
-      <c r="F103" s="15">
-        <v>4</v>
-      </c>
-      <c r="G103" s="15">
-        <v>4</v>
-      </c>
-      <c r="H103" s="15">
+      <c r="C103" s="1">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>4</v>
+      </c>
+      <c r="G103" s="1">
+        <v>4</v>
+      </c>
+      <c r="H103" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7300,22 +7302,22 @@
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="15">
-        <v>4</v>
-      </c>
-      <c r="D104" s="15">
-        <v>4</v>
-      </c>
-      <c r="E104" s="15">
-        <v>2</v>
-      </c>
-      <c r="F104" s="15">
-        <v>1</v>
-      </c>
-      <c r="G104" s="15">
-        <v>4</v>
-      </c>
-      <c r="H104" s="15">
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>4</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4</v>
+      </c>
+      <c r="H104" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7326,22 +7328,22 @@
       <c r="B105">
         <v>2</v>
       </c>
-      <c r="C105" s="15">
-        <v>4</v>
-      </c>
-      <c r="D105" s="15">
-        <v>4</v>
-      </c>
-      <c r="E105" s="15">
-        <v>2</v>
-      </c>
-      <c r="F105" s="15">
-        <v>2</v>
-      </c>
-      <c r="G105" s="15">
-        <v>4</v>
-      </c>
-      <c r="H105" s="15">
+      <c r="C105" s="1">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>4</v>
+      </c>
+      <c r="H105" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7352,22 +7354,22 @@
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106" s="15">
-        <v>5</v>
-      </c>
-      <c r="D106" s="15">
-        <v>4</v>
-      </c>
-      <c r="E106" s="15">
-        <v>2</v>
-      </c>
-      <c r="F106" s="15">
-        <v>2</v>
-      </c>
-      <c r="G106" s="15">
-        <v>3</v>
-      </c>
-      <c r="H106" s="15">
+      <c r="C106" s="1">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1">
+        <v>3</v>
+      </c>
+      <c r="H106" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7378,22 +7380,22 @@
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="15">
-        <v>4</v>
-      </c>
-      <c r="D107" s="15">
-        <v>4</v>
-      </c>
-      <c r="E107" s="15">
-        <v>2</v>
-      </c>
-      <c r="F107" s="15">
-        <v>3</v>
-      </c>
-      <c r="G107" s="15">
-        <v>4</v>
-      </c>
-      <c r="H107" s="15">
+      <c r="C107" s="1">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1">
+        <v>4</v>
+      </c>
+      <c r="H107" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7404,22 +7406,22 @@
       <c r="B108">
         <v>2</v>
       </c>
-      <c r="C108" s="15">
-        <v>4</v>
-      </c>
-      <c r="D108" s="15">
-        <v>4</v>
-      </c>
-      <c r="E108" s="15">
-        <v>2</v>
-      </c>
-      <c r="F108" s="15">
-        <v>3</v>
-      </c>
-      <c r="G108" s="15">
-        <v>2</v>
-      </c>
-      <c r="H108" s="15">
+      <c r="C108" s="1">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7430,22 +7432,22 @@
       <c r="B109">
         <v>2</v>
       </c>
-      <c r="C109" s="15">
-        <v>4</v>
-      </c>
-      <c r="D109" s="15">
-        <v>4</v>
-      </c>
-      <c r="E109" s="15">
-        <v>2</v>
-      </c>
-      <c r="F109" s="15">
-        <v>2</v>
-      </c>
-      <c r="G109" s="15">
-        <v>4</v>
-      </c>
-      <c r="H109" s="15">
+      <c r="C109" s="1">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1">
+        <v>4</v>
+      </c>
+      <c r="H109" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7456,22 +7458,22 @@
       <c r="B110">
         <v>2</v>
       </c>
-      <c r="C110" s="15">
-        <v>4</v>
-      </c>
-      <c r="D110" s="15">
-        <v>4</v>
-      </c>
-      <c r="E110" s="15">
-        <v>2</v>
-      </c>
-      <c r="F110" s="15">
-        <v>4</v>
-      </c>
-      <c r="G110" s="15">
-        <v>3</v>
-      </c>
-      <c r="H110" s="15">
+      <c r="C110" s="1">
+        <v>4</v>
+      </c>
+      <c r="D110" s="1">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>4</v>
+      </c>
+      <c r="G110" s="1">
+        <v>3</v>
+      </c>
+      <c r="H110" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7482,22 +7484,22 @@
       <c r="B111">
         <v>2</v>
       </c>
-      <c r="C111" s="15">
-        <v>5</v>
-      </c>
-      <c r="D111" s="15">
-        <v>3</v>
-      </c>
-      <c r="E111" s="15">
-        <v>2</v>
-      </c>
-      <c r="F111" s="15">
-        <v>4</v>
-      </c>
-      <c r="G111" s="15">
-        <v>3</v>
-      </c>
-      <c r="H111" s="15">
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>4</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+      <c r="H111" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7508,22 +7510,22 @@
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" s="15">
-        <v>2</v>
-      </c>
-      <c r="D112" s="15">
-        <v>4</v>
-      </c>
-      <c r="E112" s="15">
-        <v>4</v>
-      </c>
-      <c r="F112" s="15">
-        <v>2</v>
-      </c>
-      <c r="G112" s="15">
-        <v>4</v>
-      </c>
-      <c r="H112" s="15">
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>4</v>
+      </c>
+      <c r="H112" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7534,22 +7536,22 @@
       <c r="B113">
         <v>2</v>
       </c>
-      <c r="C113" s="15">
-        <v>4</v>
-      </c>
-      <c r="D113" s="15">
-        <v>4</v>
-      </c>
-      <c r="E113" s="15">
-        <v>4</v>
-      </c>
-      <c r="F113" s="15">
-        <v>4</v>
-      </c>
-      <c r="G113" s="15">
-        <v>4</v>
-      </c>
-      <c r="H113" s="15">
+      <c r="C113" s="1">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1">
+        <v>4</v>
+      </c>
+      <c r="G113" s="1">
+        <v>4</v>
+      </c>
+      <c r="H113" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7560,22 +7562,22 @@
       <c r="B114">
         <v>4</v>
       </c>
-      <c r="C114" s="15">
-        <v>3</v>
-      </c>
-      <c r="D114" s="15">
-        <v>3</v>
-      </c>
-      <c r="E114" s="15">
-        <v>2</v>
-      </c>
-      <c r="F114" s="15">
-        <v>4</v>
-      </c>
-      <c r="G114" s="15">
-        <v>2</v>
-      </c>
-      <c r="H114" s="15">
+      <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>4</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2</v>
+      </c>
+      <c r="H114" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7586,22 +7588,22 @@
       <c r="B115">
         <v>4</v>
       </c>
-      <c r="C115" s="15">
-        <v>2</v>
-      </c>
-      <c r="D115" s="15">
-        <v>4</v>
-      </c>
-      <c r="E115" s="15">
-        <v>4</v>
-      </c>
-      <c r="F115" s="15">
-        <v>3</v>
-      </c>
-      <c r="G115" s="15">
-        <v>3</v>
-      </c>
-      <c r="H115" s="15">
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>3</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7612,22 +7614,22 @@
       <c r="B116">
         <v>2</v>
       </c>
-      <c r="C116" s="15">
-        <v>4</v>
-      </c>
-      <c r="D116" s="15">
-        <v>4</v>
-      </c>
-      <c r="E116" s="15">
-        <v>2</v>
-      </c>
-      <c r="F116" s="15">
-        <v>5</v>
-      </c>
-      <c r="G116" s="15">
-        <v>3</v>
-      </c>
-      <c r="H116" s="15">
+      <c r="C116" s="1">
+        <v>4</v>
+      </c>
+      <c r="D116" s="1">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1">
+        <v>5</v>
+      </c>
+      <c r="G116" s="1">
+        <v>3</v>
+      </c>
+      <c r="H116" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7638,22 +7640,22 @@
       <c r="B117">
         <v>2</v>
       </c>
-      <c r="C117" s="15">
-        <v>2</v>
-      </c>
-      <c r="D117" s="15">
-        <v>2</v>
-      </c>
-      <c r="E117" s="15">
-        <v>1</v>
-      </c>
-      <c r="F117" s="15">
-        <v>3</v>
-      </c>
-      <c r="G117" s="15">
-        <v>2</v>
-      </c>
-      <c r="H117" s="15">
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>3</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2</v>
+      </c>
+      <c r="H117" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7664,22 +7666,22 @@
       <c r="B118">
         <v>4</v>
       </c>
-      <c r="C118" s="15">
-        <v>4</v>
-      </c>
-      <c r="D118" s="15">
-        <v>2</v>
-      </c>
-      <c r="E118" s="15">
-        <v>3</v>
-      </c>
-      <c r="F118" s="15">
-        <v>5</v>
-      </c>
-      <c r="G118" s="15">
-        <v>4</v>
-      </c>
-      <c r="H118" s="15">
+      <c r="C118" s="1">
+        <v>4</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1">
+        <v>5</v>
+      </c>
+      <c r="G118" s="1">
+        <v>4</v>
+      </c>
+      <c r="H118" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7690,22 +7692,22 @@
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119" s="15">
-        <v>4</v>
-      </c>
-      <c r="D119" s="15">
-        <v>4</v>
-      </c>
-      <c r="E119" s="15">
-        <v>3</v>
-      </c>
-      <c r="F119" s="15">
-        <v>2</v>
-      </c>
-      <c r="G119" s="15">
-        <v>5</v>
-      </c>
-      <c r="H119" s="15">
+      <c r="C119" s="1">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1">
+        <v>4</v>
+      </c>
+      <c r="E119" s="1">
+        <v>3</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="G119" s="1">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7716,22 +7718,22 @@
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120" s="15">
-        <v>4</v>
-      </c>
-      <c r="D120" s="15">
-        <v>2</v>
-      </c>
-      <c r="E120" s="15">
-        <v>1</v>
-      </c>
-      <c r="F120" s="15">
-        <v>2</v>
-      </c>
-      <c r="G120" s="15">
-        <v>2</v>
-      </c>
-      <c r="H120" s="15">
+      <c r="C120" s="1">
+        <v>4</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2</v>
+      </c>
+      <c r="H120" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7742,22 +7744,22 @@
       <c r="B121">
         <v>2</v>
       </c>
-      <c r="C121" s="15">
-        <v>5</v>
-      </c>
-      <c r="D121" s="15">
-        <v>4</v>
-      </c>
-      <c r="E121" s="15">
-        <v>3</v>
-      </c>
-      <c r="F121" s="15">
-        <v>4</v>
-      </c>
-      <c r="G121" s="15">
-        <v>2</v>
-      </c>
-      <c r="H121" s="15">
+      <c r="C121" s="1">
+        <v>5</v>
+      </c>
+      <c r="D121" s="1">
+        <v>4</v>
+      </c>
+      <c r="E121" s="1">
+        <v>3</v>
+      </c>
+      <c r="F121" s="1">
+        <v>4</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2</v>
+      </c>
+      <c r="H121" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7768,22 +7770,22 @@
       <c r="B122">
         <v>2</v>
       </c>
-      <c r="C122" s="15">
-        <v>4</v>
-      </c>
-      <c r="D122" s="15">
-        <v>3</v>
-      </c>
-      <c r="E122" s="15">
-        <v>4</v>
-      </c>
-      <c r="F122" s="15">
-        <v>4</v>
-      </c>
-      <c r="G122" s="15">
-        <v>2</v>
-      </c>
-      <c r="H122" s="15">
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1">
+        <v>4</v>
+      </c>
+      <c r="G122" s="1">
+        <v>2</v>
+      </c>
+      <c r="H122" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7794,22 +7796,22 @@
       <c r="B123">
         <v>2</v>
       </c>
-      <c r="C123" s="15">
-        <v>4</v>
-      </c>
-      <c r="D123" s="15">
-        <v>4</v>
-      </c>
-      <c r="E123" s="15">
-        <v>4</v>
-      </c>
-      <c r="F123" s="15">
-        <v>4</v>
-      </c>
-      <c r="G123" s="15">
-        <v>4</v>
-      </c>
-      <c r="H123" s="15">
+      <c r="C123" s="1">
+        <v>4</v>
+      </c>
+      <c r="D123" s="1">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1">
+        <v>4</v>
+      </c>
+      <c r="G123" s="1">
+        <v>4</v>
+      </c>
+      <c r="H123" s="1">
         <v>2</v>
       </c>
     </row>
@@ -11056,22 +11058,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="14"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -12669,7 +12671,7 @@
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="1">
         <v>3</v>
       </c>
       <c r="E63">
@@ -12695,7 +12697,7 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="1">
         <v>4</v>
       </c>
       <c r="E64">
@@ -12721,7 +12723,7 @@
       <c r="C65">
         <v>4</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="1">
         <v>4</v>
       </c>
       <c r="E65">
@@ -12747,7 +12749,7 @@
       <c r="C66">
         <v>5</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="1">
         <v>4</v>
       </c>
       <c r="E66">
@@ -12773,7 +12775,7 @@
       <c r="C67">
         <v>4</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="1">
         <v>4</v>
       </c>
       <c r="E67">
@@ -12799,7 +12801,7 @@
       <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="1">
         <v>2</v>
       </c>
       <c r="E68">
@@ -12825,7 +12827,7 @@
       <c r="C69">
         <v>4</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="1">
         <v>4</v>
       </c>
       <c r="E69">
@@ -12851,7 +12853,7 @@
       <c r="C70">
         <v>5</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="1">
         <v>2</v>
       </c>
       <c r="E70">
@@ -12877,7 +12879,7 @@
       <c r="C71">
         <v>5</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="1">
         <v>4</v>
       </c>
       <c r="E71">
@@ -12903,7 +12905,7 @@
       <c r="C72">
         <v>3</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="1">
         <v>3</v>
       </c>
       <c r="E72">
@@ -12929,7 +12931,7 @@
       <c r="C73">
         <v>3</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="1">
         <v>3</v>
       </c>
       <c r="E73">
@@ -12955,7 +12957,7 @@
       <c r="C74">
         <v>4</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="1">
         <v>2</v>
       </c>
       <c r="E74">
@@ -12981,7 +12983,7 @@
       <c r="C75">
         <v>4</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="1">
         <v>2</v>
       </c>
       <c r="E75">
@@ -13007,7 +13009,7 @@
       <c r="C76">
         <v>5</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="1">
         <v>2</v>
       </c>
       <c r="E76">
@@ -13033,7 +13035,7 @@
       <c r="C77">
         <v>3</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="1">
         <v>2</v>
       </c>
       <c r="E77">
@@ -13059,7 +13061,7 @@
       <c r="C78">
         <v>4</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="1">
         <v>4</v>
       </c>
       <c r="E78">
@@ -13085,7 +13087,7 @@
       <c r="C79">
         <v>4</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="1">
         <v>4</v>
       </c>
       <c r="E79">
@@ -13111,7 +13113,7 @@
       <c r="C80">
         <v>4</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="1">
         <v>4</v>
       </c>
       <c r="E80">
@@ -13137,7 +13139,7 @@
       <c r="C81">
         <v>3</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="1">
         <v>3</v>
       </c>
       <c r="E81">
@@ -13163,7 +13165,7 @@
       <c r="C82">
         <v>4</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="1">
         <v>4</v>
       </c>
       <c r="E82">
@@ -13189,7 +13191,7 @@
       <c r="C83">
         <v>4</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="1">
         <v>4</v>
       </c>
       <c r="E83">
@@ -13215,7 +13217,7 @@
       <c r="C84">
         <v>4</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="1">
         <v>2</v>
       </c>
       <c r="E84">
@@ -13241,7 +13243,7 @@
       <c r="C85">
         <v>4</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="1">
         <v>5</v>
       </c>
       <c r="E85">
@@ -13267,7 +13269,7 @@
       <c r="C86">
         <v>2</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="1">
         <v>4</v>
       </c>
       <c r="E86">
@@ -13293,7 +13295,7 @@
       <c r="C87">
         <v>4</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="1">
         <v>4</v>
       </c>
       <c r="E87">
@@ -13319,7 +13321,7 @@
       <c r="C88">
         <v>5</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="1">
         <v>4</v>
       </c>
       <c r="E88">
@@ -13345,7 +13347,7 @@
       <c r="C89">
         <v>3</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="1">
         <v>4</v>
       </c>
       <c r="E89">
@@ -13371,7 +13373,7 @@
       <c r="C90">
         <v>4</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="1">
         <v>4</v>
       </c>
       <c r="E90">
@@ -13397,7 +13399,7 @@
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="1">
         <v>3</v>
       </c>
       <c r="E91">
@@ -13423,7 +13425,7 @@
       <c r="C92">
         <v>4</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="1">
         <v>2</v>
       </c>
       <c r="E92">
@@ -13449,7 +13451,7 @@
       <c r="C93">
         <v>4</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="1">
         <v>1</v>
       </c>
       <c r="E93">
@@ -13475,7 +13477,7 @@
       <c r="C94">
         <v>5</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="1">
         <v>1</v>
       </c>
       <c r="E94">
@@ -13501,7 +13503,7 @@
       <c r="C95">
         <v>5</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="1">
         <v>4</v>
       </c>
       <c r="E95">
@@ -13527,7 +13529,7 @@
       <c r="C96">
         <v>4</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="1">
         <v>2</v>
       </c>
       <c r="E96">
@@ -13553,7 +13555,7 @@
       <c r="C97">
         <v>4</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="1">
         <v>2</v>
       </c>
       <c r="E97">
@@ -13579,7 +13581,7 @@
       <c r="C98">
         <v>5</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="1">
         <v>3</v>
       </c>
       <c r="E98">
@@ -13605,7 +13607,7 @@
       <c r="C99">
         <v>4</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="1">
         <v>4</v>
       </c>
       <c r="E99">
@@ -13631,7 +13633,7 @@
       <c r="C100">
         <v>4</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="1">
         <v>4</v>
       </c>
       <c r="E100">
@@ -13657,7 +13659,7 @@
       <c r="C101">
         <v>4</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="1">
         <v>4</v>
       </c>
       <c r="E101">
@@ -13683,7 +13685,7 @@
       <c r="C102">
         <v>4</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="1">
         <v>4</v>
       </c>
       <c r="E102">
@@ -13709,7 +13711,7 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="1">
         <v>3</v>
       </c>
       <c r="E103">
@@ -13735,7 +13737,7 @@
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="1">
         <v>4</v>
       </c>
       <c r="E104">
@@ -13761,7 +13763,7 @@
       <c r="C105">
         <v>4</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="1">
         <v>4</v>
       </c>
       <c r="E105">
@@ -13787,7 +13789,7 @@
       <c r="C106">
         <v>4</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="1">
         <v>4</v>
       </c>
       <c r="E106">
@@ -13813,7 +13815,7 @@
       <c r="C107">
         <v>2</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="1">
         <v>5</v>
       </c>
       <c r="E107">
@@ -13839,7 +13841,7 @@
       <c r="C108">
         <v>5</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="1">
         <v>4</v>
       </c>
       <c r="E108">
@@ -13865,7 +13867,7 @@
       <c r="C109">
         <v>5</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="1">
         <v>2</v>
       </c>
       <c r="E109">
@@ -13891,7 +13893,7 @@
       <c r="C110">
         <v>4</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="1">
         <v>2</v>
       </c>
       <c r="E110">
@@ -13917,7 +13919,7 @@
       <c r="C111">
         <v>4</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="1">
         <v>3</v>
       </c>
       <c r="E111">
@@ -13943,7 +13945,7 @@
       <c r="C112">
         <v>4</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="1">
         <v>4</v>
       </c>
       <c r="E112">
@@ -13969,7 +13971,7 @@
       <c r="C113">
         <v>4</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="1">
         <v>4</v>
       </c>
       <c r="E113">
@@ -13995,7 +13997,7 @@
       <c r="C114">
         <v>4</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="1">
         <v>4</v>
       </c>
       <c r="E114">
@@ -14021,7 +14023,7 @@
       <c r="C115">
         <v>3</v>
       </c>
-      <c r="D115" s="15">
+      <c r="D115" s="1">
         <v>2</v>
       </c>
       <c r="E115">
@@ -14047,7 +14049,7 @@
       <c r="C116">
         <v>4</v>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="1">
         <v>4</v>
       </c>
       <c r="E116">
@@ -14073,7 +14075,7 @@
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="1">
         <v>2</v>
       </c>
       <c r="E117">
@@ -14099,7 +14101,7 @@
       <c r="C118">
         <v>3</v>
       </c>
-      <c r="D118" s="15">
+      <c r="D118" s="1">
         <v>4</v>
       </c>
       <c r="E118">
@@ -14125,7 +14127,7 @@
       <c r="C119">
         <v>5</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="1">
         <v>2</v>
       </c>
       <c r="E119">
@@ -14151,7 +14153,7 @@
       <c r="C120">
         <v>4</v>
       </c>
-      <c r="D120" s="15">
+      <c r="D120" s="1">
         <v>4</v>
       </c>
       <c r="E120">
@@ -14177,7 +14179,7 @@
       <c r="C121">
         <v>4</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="1">
         <v>4</v>
       </c>
       <c r="E121">
@@ -14203,7 +14205,7 @@
       <c r="C122">
         <v>4</v>
       </c>
-      <c r="D122" s="15">
+      <c r="D122" s="1">
         <v>2</v>
       </c>
       <c r="E122">
@@ -14229,7 +14231,7 @@
       <c r="C123">
         <v>4</v>
       </c>
-      <c r="D123" s="15">
+      <c r="D123" s="1">
         <v>2</v>
       </c>
       <c r="E123">
@@ -14261,8 +14263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:C62"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14275,292 +14277,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="14"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="20">
         <v>704</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20">
         <v>3231</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20">
         <v>631.5</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20">
         <v>2704</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="20">
         <v>-4.6113759999999999</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
         <v>-5.2967690000000003</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20">
         <v>-6.278918</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20">
         <v>-0.43531130000000001</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="21">
         <v>2.8789999999999999E-6</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10">
+      <c r="D4" s="21"/>
+      <c r="E4" s="22">
         <v>7.3070000000000005E-8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22">
         <v>1.419E-10</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="12">
+      <c r="H4" s="22"/>
+      <c r="I4" s="20">
         <v>0.6583</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="21">
         <v>-0.29521310000000001</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10">
+      <c r="D5" s="21"/>
+      <c r="E5" s="22">
         <v>-0.33909089999999997</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
         <v>-0.40196660000000001</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="12">
+      <c r="H5" s="22"/>
+      <c r="I5" s="20">
         <v>-2.7867949999999999E-2</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="17">
         <v>1258.5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17">
         <v>1983.5</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17">
         <v>1609</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17">
         <v>3140</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="17">
         <v>-1.5711930000000001</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17">
         <v>-2.2064729999999999</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17">
         <v>-1.4521390000000001</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17">
         <v>-1.3295509999999999</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="18">
         <v>0.1105</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19">
         <v>2.461E-2</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
         <v>0.13980000000000001</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5">
+      <c r="H8" s="19"/>
+      <c r="I8" s="11">
         <v>0.17580000000000001</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="18">
         <v>-0.1005853</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
         <v>-0.14125499999999999</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <v>-9.2963649999999995E-2</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5">
+      <c r="H9" s="19"/>
+      <c r="I9" s="11">
         <v>-8.5115780000000002E-2</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="13">
         <v>424.5</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
         <v>2875</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2">
+      <c r="F10" s="13"/>
+      <c r="G10" s="9">
         <v>415.5</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
         <v>2255</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="13">
         <v>-6.2264720000000002</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
         <v>-5.7182069999999996</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2">
+      <c r="F11" s="13"/>
+      <c r="G11" s="9">
         <v>-7.0561369999999997</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
         <v>-0.76786379999999999</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="14">
         <v>2.523E-10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13">
         <v>6.8489999999999998E-9</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
         <v>8.1889999999999997E-13</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="22">
+      <c r="H12" s="13"/>
+      <c r="I12" s="15">
         <v>0.43509999999999999</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="13">
         <v>-0.39860899999999999</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <v>-0.36607070000000003</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2">
+      <c r="F13" s="13"/>
+      <c r="G13" s="9">
         <v>-0.45172289999999998</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
         <v>-4.9157439999999997E-2</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -14578,410 +14580,410 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="5">
         <v>1.278689</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="6">
         <v>1.2459020000000001</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="6">
         <v>1.319672</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="5">
         <v>1.393443</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="6">
         <v>1.122951</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="6">
         <v>1.2950820000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="5">
         <v>1.278689</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="6">
         <v>1.2459020000000001</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="6">
         <v>1.319672</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="5">
         <v>1.606557</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="6">
         <v>1.721311</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="6">
         <v>1.6393439999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="5">
         <v>1.194078</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="6">
         <v>1.1377189999999999</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="6">
         <v>1.0929249999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="5">
         <v>1.110114</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="6">
         <v>1.080082</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="6">
         <v>1.1901010000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="5">
         <v>1.194078</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="6">
         <v>1.1377189999999999</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="6">
         <v>1.0929249999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="5">
         <v>1.0875509999999999</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="6">
         <v>1.0853060000000001</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="6">
         <v>1.1717439999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="5">
         <v>0.83120000000000005</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="7">
         <v>0.79469999999999996</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="5">
         <v>0.71389999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="5">
         <v>3.9539999999999999E-2</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="5">
         <v>0.42470000000000002</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="5">
         <v>0.27910000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="5">
         <v>0.83120000000000005</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="7">
         <v>0.79469999999999996</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="5">
         <v>0.71389999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="7">
         <v>0.4017</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="5">
         <v>0.77729999999999999</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="5">
         <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="5">
         <v>1.942623</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="5">
         <v>0.92975759999999996</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="5">
         <v>2.4672130000000001</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="5">
         <v>1.114773</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="5">
         <v>1.991803</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="5">
         <v>0.94033489999999997</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="5">
         <v>2.6967210000000001</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="5">
         <v>1.149124</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="5">
         <v>2.7131150000000002</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="5">
         <v>1.063904</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="5">
         <v>2.9836070000000001</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="5">
         <v>1.0831820000000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="5">
         <v>3.8032789999999999</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="5">
         <v>1.0495129999999999</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="5">
         <v>3.7049180000000002</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="5">
         <v>1.1036269999999999</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="5">
         <v>3.8114750000000002</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="5">
         <v>0.93889299999999998</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="5">
         <v>2.9016389999999999</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="5">
         <v>1.235895</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="5">
         <v>3.368852</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="5">
         <v>1.0381229999999999</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="5">
         <v>2.877049</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="5">
         <v>1.117686</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="5">
         <v>2.2377050000000001</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="5">
         <v>1.036948</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="5">
         <v>3.0901640000000001</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="5">
         <v>1.1992020000000001</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="5">
         <v>2.278689</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="5">
         <v>1.0062800000000001</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="5">
         <v>3.393443</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="5">
         <v>1.032988</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="5">
         <v>3.3278690000000002</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="5">
         <v>1.063618</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="5">
         <v>3.5983610000000001</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="5">
         <v>1.0095400000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="5">
         <v>3.0819670000000001</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="5">
         <v>1.1177760000000001</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="5">
         <v>3.229508</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="5">
         <v>1.12659</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="5">
         <v>3.0245899999999999</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="5">
         <v>1.124212</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="5">
         <v>3.0163929999999999</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="5">
         <v>1.020319</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="5">
         <v>2.9836070000000001</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="5">
         <v>1.0907849999999999</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="5">
         <v>3.1721309999999998</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="5">
         <v>1.103658</v>
       </c>
     </row>
@@ -15088,11 +15090,11 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f t="shared" ref="B66:B69" si="0">2+B60</f>
+        <f t="shared" ref="B66:B68" si="0">2+B60</f>
         <v>2.75</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C73" si="1">C60</f>
+        <f t="shared" ref="C66:C68" si="1">C60</f>
         <v>4.2</v>
       </c>
     </row>
@@ -15158,12 +15160,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="C10:D10"/>
@@ -15180,43 +15213,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -15231,8 +15233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
